--- a/misc/linear_regression.xlsx
+++ b/misc/linear_regression.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="23475" windowHeight="14745" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="23475" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -534,10 +534,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.0569356506974218E-2"/>
-          <c:y val="2.2334967563016898E-2"/>
-          <c:w val="0.87527463395093852"/>
-          <c:h val="0.86294532758876863"/>
+          <c:x val="3.0569356506974222E-2"/>
+          <c:y val="2.2334967563016905E-2"/>
+          <c:w val="0.87527463395093863"/>
+          <c:h val="0.86294532758876874"/>
         </c:manualLayout>
       </c:layout>
       <c:surface3DChart>
@@ -634,64 +634,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.2872973707523191E-153</c:v>
+                  <c:v>4.3401297278226953E-177</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7257037417635664E-138</c:v>
+                  <c:v>2.6152709689426887E-162</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6199015550540518E-125</c:v>
+                  <c:v>6.3128451253613007E-150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4761934385561901E-115</c:v>
+                  <c:v>6.104189908831043E-140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8581464452287135E-107</c:v>
+                  <c:v>2.3644242138792669E-132</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8741236897237074E-102</c:v>
+                  <c:v>3.6687424078120807E-127</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5926545596469753E-100</c:v>
+                  <c:v>2.2803604564161641E-124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7344912008391483E-100</c:v>
+                  <c:v>5.6778542847448047E-124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9558197878176083E-103</c:v>
+                  <c:v>5.6631679820686056E-126</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.390412571573475E-108</c:v>
+                  <c:v>2.2627110883474967E-130</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1874028639093723E-116</c:v>
+                  <c:v>3.6215394979711163E-137</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4637674726055239E-127</c:v>
+                  <c:v>2.3219443515866622E-146</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2420771186424214E-140</c:v>
+                  <c:v>5.9635497677409368E-158</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.521404247517038E-156</c:v>
+                  <c:v>6.1355337396743218E-172</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5278069983060553E-175</c:v>
+                  <c:v>2.5286825366729247E-188</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2739979815835672E-196</c:v>
+                  <c:v>4.17475246491354E-207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.7519635756922535E-220</c:v>
+                  <c:v>2.7609695072200383E-228</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4552802251980389E-246</c:v>
+                  <c:v>7.3145388430386715E-252</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5464386874669724E-275</c:v>
+                  <c:v>7.7625918280023216E-278</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.4167127850238656E-307</c:v>
+                  <c:v>3.3000537292078489E-306</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -793,64 +793,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.0228724680971742E-141</c:v>
+                  <c:v>7.0945481946436184E-161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1298972554006937E-125</c:v>
+                  <c:v>4.9092048079207578E-146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8300411676939832E-112</c:v>
+                  <c:v>1.360792848914712E-133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.820412734800367E-102</c:v>
+                  <c:v>1.5110100249642803E-123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.937790968892158E-94</c:v>
+                  <c:v>6.7210501040063643E-116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3880905495083937E-89</c:v>
+                  <c:v>1.1975713017219374E-110</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1505899032355773E-87</c:v>
+                  <c:v>8.5479128798391845E-108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2021176710855944E-87</c:v>
+                  <c:v>2.4440678269840481E-107</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.1952955129687174E-90</c:v>
+                  <c:v>2.7993737185017481E-109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9491027089839295E-95</c:v>
+                  <c:v>1.2844078988023914E-113</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1207701052788762E-103</c:v>
+                  <c:v>2.3606930113552785E-120</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0447335997681672E-113</c:v>
+                  <c:v>1.7380830362406387E-129</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4354653651878461E-127</c:v>
+                  <c:v>5.1262052051676366E-141</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.6316694880966197E-143</c:v>
+                  <c:v>6.056419004801826E-155</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5024375810038523E-161</c:v>
+                  <c:v>2.8663571300169587E-171</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0944712780742116E-182</c:v>
+                  <c:v>5.4342441419620601E-190</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.6427778192623656E-206</c:v>
+                  <c:v>4.1270758612651151E-211</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.4646567649446235E-232</c:v>
+                  <c:v>1.2555679399373812E-234</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3905398697948047E-261</c:v>
+                  <c:v>1.5301444928002106E-260</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3518324053397364E-292</c:v>
+                  <c:v>7.4699746708022764E-289</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -952,67 +952,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3.2917325466635787E-129</c:v>
+                  <c:v>7.5433199466632821E-146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4223454214660933E-113</c:v>
+                  <c:v>5.9940638065331339E-131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4932510734512777E-100</c:v>
+                  <c:v>1.9079836760464042E-118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8089722712585658E-90</c:v>
+                  <c:v>2.4328896323593222E-108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3606413246118423E-82</c:v>
+                  <c:v>1.2426951990706649E-100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5546710629916942E-77</c:v>
+                  <c:v>2.5427361255205734E-95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3005170525410534E-74</c:v>
+                  <c:v>2.0841665716599008E-92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1560587424558776E-74</c:v>
+                  <c:v>6.8431808630306453E-92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4968414905586357E-77</c:v>
+                  <c:v>9.0007369782535247E-94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3102351965070253E-82</c:v>
+                  <c:v>4.7423388624581278E-98</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6705318862562245E-90</c:v>
+                  <c:v>1.000925042936996E-104</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1749659505938557E-101</c:v>
+                  <c:v>8.462622872383753E-114</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8949998256985811E-114</c:v>
+                  <c:v>2.8661761605759866E-125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.122863265333161E-130</c:v>
+                  <c:v>3.8886175449673463E-139</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1648198311906539E-148</c:v>
+                  <c:v>2.1134016546308035E-155</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4165721311172854E-169</c:v>
+                  <c:v>4.6011174012469992E-174</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.9614733115773485E-193</c:v>
+                  <c:v>4.0127217537521698E-195</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.7110433457589756E-219</c:v>
+                  <c:v>1.4018748285623727E-218</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.8429814905175617E-248</c:v>
+                  <c:v>1.9618865470566182E-244</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3268191637127541E-279</c:v>
+                  <c:v>1.0998488382962397E-272</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2.4699409560529098E-303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,67 +1111,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.1015586032096709E-118</c:v>
+                  <c:v>5.2169426983564109E-132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1095518287382603E-102</c:v>
+                  <c:v>4.7604425163583524E-117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4233145892402958E-89</c:v>
+                  <c:v>1.7400953398359167E-104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.436101018907996E-79</c:v>
+                  <c:v>2.5479636178709916E-94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3593029602797122E-71</c:v>
+                  <c:v>1.4945410938249324E-86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1807921170975849E-66</c:v>
+                  <c:v>3.5116963741699094E-81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7630345791002599E-63</c:v>
+                  <c:v>3.3053733209617928E-78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0010672136052243E-63</c:v>
+                  <c:v>1.2462883504044242E-77</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9197658786794139E-66</c:v>
+                  <c:v>1.8823960961555037E-79</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0780407697092969E-71</c:v>
+                  <c:v>1.1389324094034384E-83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.9109245469447809E-79</c:v>
+                  <c:v>2.7604465930748572E-90</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9943703943476291E-89</c:v>
+                  <c:v>2.6801259690209809E-99</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7537912589149964E-102</c:v>
+                  <c:v>1.042378690438261E-110</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.1532382754588217E-118</c:v>
+                  <c:v>1.6240159934297502E-124</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3405937757066271E-136</c:v>
+                  <c:v>1.0135601783186917E-140</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.4064700359935195E-157</c:v>
+                  <c:v>2.5339803133830263E-159</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4122292225318896E-180</c:v>
+                  <c:v>2.5377649427882879E-180</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0996811619343864E-206</c:v>
+                  <c:v>1.0181083766699777E-203</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0805377296812636E-235</c:v>
+                  <c:v>1.6361800298196436E-229</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.5638251024165666E-267</c:v>
+                  <c:v>1.0533255637848634E-257</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0681564659601572E-300</c:v>
+                  <c:v>2.7163680972135301E-288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,67 +1270,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.5673087487898978E-108</c:v>
+                  <c:v>2.3468501354978793E-119</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.01108157723763E-92</c:v>
+                  <c:v>2.4591727724398771E-104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5847656731432356E-79</c:v>
+                  <c:v>1.0322554534639795E-91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0351925812583103E-69</c:v>
+                  <c:v>1.7357204890532285E-81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5842445508163613E-61</c:v>
+                  <c:v>1.169140901015813E-73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2554081515296659E-55</c:v>
+                  <c:v>3.1546296286872678E-68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8572925557760829E-53</c:v>
+                  <c:v>3.4097643182105577E-65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1005498180595231E-53</c:v>
+                  <c:v>1.4763686188545404E-64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9344708747509939E-55</c:v>
+                  <c:v>2.5607059405594272E-66</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2990011808612778E-60</c:v>
+                  <c:v>1.7791766591149292E-70</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.376186320281785E-68</c:v>
+                  <c:v>4.9519117440736973E-77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0239493178308368E-78</c:v>
+                  <c:v>5.5210436289894328E-86</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2743153408607954E-91</c:v>
+                  <c:v>2.4658344866105422E-97</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2093901371262382E-107</c:v>
+                  <c:v>4.4116507625633468E-111</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.1190250501015663E-125</c:v>
+                  <c:v>3.1617883012661286E-127</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.6387625854451134E-146</c:v>
+                  <c:v>9.0773464461375457E-146</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.5997229092184746E-169</c:v>
+                  <c:v>1.0439495075958681E-166</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4735130371844518E-195</c:v>
+                  <c:v>4.8094402804079742E-190</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.7180581177171578E-224</c:v>
+                  <c:v>8.8757291090810844E-216</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.211664309494448E-255</c:v>
+                  <c:v>6.561573550580592E-244</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.3828735882925767E-289</c:v>
+                  <c:v>1.9431504326576342E-274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,67 +1429,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.3654119513643668E-99</c:v>
+                  <c:v>6.8670530287637294E-108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0762691457473981E-83</c:v>
+                  <c:v>8.2631666385268628E-93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0612245168026968E-70</c:v>
+                  <c:v>3.983062129760531E-80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5912879068466405E-60</c:v>
+                  <c:v>7.6909875881628767E-70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0843657074624234E-51</c:v>
+                  <c:v>5.9489675512118436E-62</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9786662240423386E-46</c:v>
+                  <c:v>1.8432979900673982E-56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9879942589142278E-43</c:v>
+                  <c:v>2.2879364585667096E-53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2237075015461044E-43</c:v>
+                  <c:v>1.1375927829222007E-52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2701158998505199E-45</c:v>
+                  <c:v>2.2658134857186555E-54</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.215845228006393E-50</c:v>
+                  <c:v>1.8078231621868855E-58</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8278766074449799E-58</c:v>
+                  <c:v>5.7780619691742591E-65</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5980480558987194E-68</c:v>
+                  <c:v>7.3978054198630229E-74</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1941506042476127E-81</c:v>
+                  <c:v>3.7941812442880615E-85</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3196489262612418E-97</c:v>
+                  <c:v>7.7952078834227415E-99</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9328215818740505E-115</c:v>
+                  <c:v>6.4155189187625472E-115</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1683677033644512E-135</c:v>
+                  <c:v>2.1150972394579867E-133</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.5904274775982034E-159</c:v>
+                  <c:v>2.7933370819382393E-154</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.4991672205115517E-185</c:v>
+                  <c:v>1.4777835059031146E-177</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8357672746676531E-213</c:v>
+                  <c:v>3.1317907930327179E-203</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2598671578206338E-244</c:v>
+                  <c:v>2.6586987477212867E-231</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1007728939242222E-278</c:v>
+                  <c:v>9.0414894293611003E-262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1588,67 +1588,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.3895332107771758E-91</c:v>
+                  <c:v>1.3069867885974149E-97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.338294436051346E-75</c:v>
+                  <c:v>1.8060082634127149E-82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1317106740963179E-62</c:v>
+                  <c:v>9.9968397056832653E-70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7805690151396064E-51</c:v>
+                  <c:v>2.2166656108822676E-59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.45970605207421E-43</c:v>
+                  <c:v>1.9689382632134623E-51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2557175600705702E-38</c:v>
+                  <c:v>7.0058119198646336E-46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7324581528562679E-35</c:v>
+                  <c:v>9.9857182669576941E-43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3339505103034645E-34</c:v>
+                  <c:v>5.7015718780929364E-42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4217440401114407E-37</c:v>
+                  <c:v>1.3040803724633401E-43</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5112719143722286E-42</c:v>
+                  <c:v>1.1948367532964767E-47</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1346230553967154E-49</c:v>
+                  <c:v>4.3853801612996644E-54</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4739275156220369E-59</c:v>
+                  <c:v>6.4476340778945854E-63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4727389854959157E-72</c:v>
+                  <c:v>3.7974142547862293E-74</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0079236706979873E-87</c:v>
+                  <c:v>8.9592164805003139E-88</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.9821532267836843E-106</c:v>
+                  <c:v>8.467331142892315E-104</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4019725418024967E-126</c:v>
+                  <c:v>3.2056604463242159E-122</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4042973095851739E-149</c:v>
+                  <c:v>4.8616417452852796E-143</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9947905773622161E-175</c:v>
+                  <c:v>2.9535399276433651E-166</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.8846643424595539E-204</c:v>
+                  <c:v>7.1878201180838638E-192</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.7731847205369266E-235</c:v>
+                  <c:v>7.0072242049570298E-220</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1762384032414685E-268</c:v>
+                  <c:v>2.7364611512910801E-250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,67 +1747,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.6518486460404812E-84</c:v>
+                  <c:v>1.6180343863228438E-88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9439206974294445E-68</c:v>
+                  <c:v>2.5674896881836502E-73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5581985285549937E-55</c:v>
+                  <c:v>1.6320149356825144E-60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8613288060058399E-44</c:v>
+                  <c:v>4.1556026046262892E-50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5175854517924112E-36</c:v>
+                  <c:v>4.2387553460937059E-42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6729073288954729E-30</c:v>
+                  <c:v>1.7319571824731148E-36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6633502840778954E-27</c:v>
+                  <c:v>2.8348521384780397E-33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4479237702334667E-27</c:v>
+                  <c:v>1.8587378047009842E-32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7927893180036434E-29</c:v>
+                  <c:v>4.8820285228243958E-34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4205675744903063E-34</c:v>
+                  <c:v>5.1366142543177305E-38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8822531189762209E-41</c:v>
+                  <c:v>2.1649509074771602E-44</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5880292849504591E-51</c:v>
+                  <c:v>3.6552207689414136E-53</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2552639412268142E-64</c:v>
+                  <c:v>2.4721432498242107E-64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6212915789409573E-79</c:v>
+                  <c:v>6.6977373436315115E-78</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9619289035467006E-97</c:v>
+                  <c:v>7.2690398888903733E-94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.7683635337723145E-118</c:v>
+                  <c:v>3.1602428078630469E-112</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1206829333697405E-141</c:v>
+                  <c:v>5.5037450908144739E-133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.1520903836191253E-167</c:v>
+                  <c:v>3.8396410882997298E-156</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0160879971103228E-195</c:v>
+                  <c:v>1.073043701506512E-181</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.0903113817387455E-226</c:v>
+                  <c:v>1.2012645164144116E-209</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.6932118778941111E-260</c:v>
+                  <c:v>5.3870914474382877E-240</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1906,67 +1906,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.293863978188375E-78</c:v>
+                  <c:v>1.302926895731105E-80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2983861982097226E-62</c:v>
+                  <c:v>2.3741788714724347E-65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.152345118758094E-48</c:v>
+                  <c:v>1.7330108521189587E-52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7816213575836515E-38</c:v>
+                  <c:v>5.067381349789748E-42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0173736655825677E-29</c:v>
+                  <c:v>5.9355416255289247E-34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0109020241642254E-23</c:v>
+                  <c:v>2.7850409242650194E-28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2307759573374404E-20</c:v>
+                  <c:v>5.2347659316150103E-25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6407944512327767E-20</c:v>
+                  <c:v>3.9414626304539917E-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6167397776082364E-22</c:v>
+                  <c:v>1.1888088218077599E-25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5695362912534723E-27</c:v>
+                  <c:v>1.4363526665561404E-29</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9387907738497416E-34</c:v>
+                  <c:v>6.9519175170499684E-36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9986510535881925E-44</c:v>
+                  <c:v>1.3478532067755861E-44</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0059928878565415E-57</c:v>
+                  <c:v>1.0468273041147668E-55</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0464264585499709E-72</c:v>
+                  <c:v>3.2568814234784304E-69</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5044149158162091E-90</c:v>
+                  <c:v>4.0590398243056815E-85</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6182040961226516E-110</c:v>
+                  <c:v>2.0264651410037403E-103</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4124576116012526E-133</c:v>
+                  <c:v>4.0527463423830619E-124</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9954685862757703E-159</c:v>
+                  <c:v>3.2467897589452256E-147</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5434811662594956E-187</c:v>
+                  <c:v>1.0419655786414591E-172</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9323470058173135E-218</c:v>
+                  <c:v>1.339513321371738E-200</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.8778178240126338E-252</c:v>
+                  <c:v>6.8981901500441789E-231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,67 +2065,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3.7210127704789496E-73</c:v>
+                  <c:v>6.8244570380411522E-74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5376332609356883E-57</c:v>
+                  <c:v>1.4280187714070796E-58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7907900593977421E-43</c:v>
+                  <c:v>1.1970001047539189E-45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8945496222749311E-32</c:v>
+                  <c:v>4.0192860931329436E-35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2942736140397218E-24</c:v>
+                  <c:v>5.406274741083906E-27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4661192988029761E-18</c:v>
+                  <c:v>2.9130085819134071E-21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6439416314652193E-15</c:v>
+                  <c:v>6.2875271845494225E-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4014221716610811E-14</c:v>
+                  <c:v>5.4364130628582513E-17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1089119251043717E-16</c:v>
+                  <c:v>1.882952995642133E-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4998246257238024E-21</c:v>
+                  <c:v>2.6125280989015862E-22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3328131381125099E-28</c:v>
+                  <c:v>1.4520344538906588E-28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9384041988293827E-38</c:v>
+                  <c:v>3.2328632367673379E-37</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.992704821066563E-51</c:v>
+                  <c:v>2.8833157455652069E-48</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.6867696024055198E-66</c:v>
+                  <c:v>1.030128812718517E-61</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2080630461034179E-83</c:v>
+                  <c:v>1.4742981663891865E-77</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3028587467355749E-104</c:v>
+                  <c:v>8.4522741723493584E-96</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.6555876439706937E-127</c:v>
+                  <c:v>1.9411374424444517E-116</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4655229843239339E-152</c:v>
+                  <c:v>1.785802626022666E-139</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.2268773988207271E-181</c:v>
+                  <c:v>6.5811999793014415E-165</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4114454073518099E-211</c:v>
+                  <c:v>9.7156347145769684E-193</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.2459076244271836E-245</c:v>
+                  <c:v>5.7455515844836696E-223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2224,67 +2224,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>7.0510005540528057E-69</c:v>
+                  <c:v>2.3250479394455073E-68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5136856497092867E-52</c:v>
+                  <c:v>5.5868903736937849E-53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8952858348756799E-39</c:v>
+                  <c:v>5.3777777179482882E-40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0005694537965546E-27</c:v>
+                  <c:v>2.0736239724608005E-29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0808733248361406E-19</c:v>
+                  <c:v>3.2029607919915953E-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3048765139860754E-13</c:v>
+                  <c:v>1.9818359392662913E-15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1895627755346056E-10</c:v>
+                  <c:v>4.9122248415588511E-12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8502778963126361E-9</c:v>
+                  <c:v>4.8773422778409289E-11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9854202092875785E-11</c:v>
+                  <c:v>1.9399149557681663E-12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1762487018787041E-16</c:v>
+                  <c:v>3.0908405990248244E-16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2788764307238524E-23</c:v>
+                  <c:v>1.9727178987935737E-22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0464059563128095E-33</c:v>
+                  <c:v>5.0436834504729816E-31</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8870635999324532E-45</c:v>
+                  <c:v>5.165651680408388E-42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7145024485074996E-60</c:v>
+                  <c:v>2.11932165092831E-55</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.7847474130173E-78</c:v>
+                  <c:v>3.483077127012379E-71</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0299386418636793E-98</c:v>
+                  <c:v>2.293104082954109E-89</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.6453073576474457E-121</c:v>
+                  <c:v>6.0475421475977787E-110</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.3756127207798633E-147</c:v>
+                  <c:v>6.388935444089824E-133</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.4432392037359003E-175</c:v>
+                  <c:v>2.7037874998750848E-158</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2043123516030725E-205</c:v>
+                  <c:v>4.5836460269403484E-186</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4691677639683888E-239</c:v>
+                  <c:v>3.1127486077411275E-216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2383,67 +2383,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.5607610786466724E-65</c:v>
+                  <c:v>5.1524225528447361E-64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.09399136317595E-49</c:v>
+                  <c:v>1.4217463955657392E-48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6091835804712603E-35</c:v>
+                  <c:v>1.5715465847072441E-35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0402623878145238E-24</c:v>
+                  <c:v>6.9586796267917922E-25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5200634732294631E-15</c:v>
+                  <c:v>1.2343004444147029E-16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3895081380733209E-9</c:v>
+                  <c:v>8.7701977980083051E-11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0860835897296741E-6</c:v>
+                  <c:v>2.4962745621064436E-7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6653345590765784E-5</c:v>
+                  <c:v>2.8462285710192894E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1834463388930035E-7</c:v>
+                  <c:v>1.2999949238480747E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.955538684215692E-12</c:v>
+                  <c:v>2.3785265252433554E-11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3835188323396966E-19</c:v>
+                  <c:v>1.7432866382271099E-17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0123925062203151E-28</c:v>
+                  <c:v>5.1182802719953186E-26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6257145155581589E-41</c:v>
+                  <c:v>6.0196852770921129E-37</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.135183285316787E-56</c:v>
+                  <c:v>2.8360766747555711E-50</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3850973268702239E-73</c:v>
+                  <c:v>5.3524991873464185E-66</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.0771989055972019E-94</c:v>
+                  <c:v>4.0465947329399056E-84</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4453420301331798E-116</c:v>
+                  <c:v>1.2255111690968943E-104</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5916068840100062E-142</c:v>
+                  <c:v>1.4867546153643259E-127</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.2559333422150337E-170</c:v>
+                  <c:v>7.2252982179616261E-153</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2003566020099051E-200</c:v>
+                  <c:v>1.4065873858781302E-180</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.6606703662558601E-234</c:v>
+                  <c:v>1.0969128388955674E-210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2542,67 +2542,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4.0356936653754162E-63</c:v>
+                  <c:v>7.4268864834855932E-61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2934636842714091E-46</c:v>
+                  <c:v>2.3533681685176818E-45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0072505320554268E-32</c:v>
+                  <c:v>2.9872214820371897E-32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9057590466731992E-21</c:v>
+                  <c:v>1.5189358501022388E-21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7608388850678671E-13</c:v>
+                  <c:v>3.0938973545555406E-13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7852204900612857E-7</c:v>
+                  <c:v>2.5244503272284864E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6554783039868884E-3</c:v>
+                  <c:v>8.2512969719401353E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7509031248698327E-2</c:v>
+                  <c:v>1.080368881294503E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.804973076952182E-4</c:v>
+                  <c:v>5.6665193297158686E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0917985051522896E-8</c:v>
+                  <c:v>1.1905705693356738E-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0325319820241519E-15</c:v>
+                  <c:v>1.0020476426219418E-13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3725301965970563E-25</c:v>
+                  <c:v>3.3784388187774347E-22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3245464826983237E-37</c:v>
+                  <c:v>4.5628711641264892E-33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7966764600223947E-52</c:v>
+                  <c:v>2.4686232446610395E-46</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9213368905854928E-70</c:v>
+                  <c:v>5.3501490544762897E-62</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.741512311738506E-90</c:v>
+                  <c:v>4.644846957422719E-80</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.2248903652322427E-113</c:v>
+                  <c:v>1.6153677062449402E-100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3606653926714861E-138</c:v>
+                  <c:v>2.2504317357351184E-123</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0083137975171541E-166</c:v>
+                  <c:v>1.255899104566048E-148</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3975827112394525E-196</c:v>
+                  <c:v>2.8076186449668534E-176</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.475687424861106E-230</c:v>
+                  <c:v>2.5142933386845447E-206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2701,67 +2701,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.218978509647202E-61</c:v>
+                  <c:v>6.9633440275992732E-59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7737277456174402E-45</c:v>
+                  <c:v>2.5338060382898089E-43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.54220220026066E-31</c:v>
+                  <c:v>3.6933744558513687E-30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0500802705940731E-19</c:v>
+                  <c:v>2.1565909356837758E-19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8982849974442591E-11</c:v>
+                  <c:v>5.0443669281868845E-11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0496357106437841E-5</c:v>
+                  <c:v>4.7265039351648393E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26691557659148912</c:v>
+                  <c:v>0.17740580960491034</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1503979147756538</c:v>
+                  <c:v>2.6674120680315268</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2093104783682472E-2</c:v>
+                  <c:v>0.16065966071665203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0019365541835746E-6</c:v>
+                  <c:v>3.8763058725822302E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3133262061006569E-13</c:v>
+                  <c:v>3.7464823654154815E-11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.4948730207750208E-23</c:v>
+                  <c:v>1.4505202835322949E-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.430489082499597E-35</c:v>
+                  <c:v>2.2496677344304074E-30</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3431076605646496E-50</c:v>
+                  <c:v>1.3976789125377519E-43</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9570273370801486E-67</c:v>
+                  <c:v>3.4784911755673335E-59</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.893196974763882E-87</c:v>
+                  <c:v>3.4679183121908001E-77</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.8777737311826724E-110</c:v>
+                  <c:v>1.3849728883901398E-97</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.9725098684806715E-135</c:v>
+                  <c:v>2.2156856488915312E-120</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.5748001670881998E-163</c:v>
+                  <c:v>1.4199383127843341E-145</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9008193438708436E-193</c:v>
+                  <c:v>3.6452328056708324E-173</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.5747064286800036E-226</c:v>
+                  <c:v>3.7486554296698016E-203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2860,67 +2860,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4.301005465612616E-61</c:v>
+                  <c:v>4.2466324237753468E-58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0580557875520291E-44</c:v>
+                  <c:v>1.774486139584729E-42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3927179653771475E-30</c:v>
+                  <c:v>2.9702637256627208E-29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7588544922451E-19</c:v>
+                  <c:v>1.9916447294423869E-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6387599852276867E-10</c:v>
+                  <c:v>5.3496231691590752E-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7353136218478232E-4</c:v>
+                  <c:v>5.7561084894893096E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1340157143020129</c:v>
+                  <c:v>2.4810139739167156</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.85116950633752</c:v>
+                  <c:v>42.837479523306463</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7378860722790439</c:v>
+                  <c:v>2.9628732240195625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2879944355386432E-5</c:v>
+                  <c:v>8.2091215930439035E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.054333387603793E-12</c:v>
+                  <c:v>9.1111829577980613E-10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0769482233925233E-21</c:v>
+                  <c:v>4.0508606778364034E-18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7311401418633811E-33</c:v>
+                  <c:v>7.2146340242293413E-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5057908467203806E-48</c:v>
+                  <c:v>5.147255951357567E-42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7249916516093596E-65</c:v>
+                  <c:v>1.471064391656603E-57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.062221029646224E-85</c:v>
+                  <c:v>1.6841550107947014E-75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9900527091182796E-108</c:v>
+                  <c:v>7.7237267388551422E-96</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.2273995375622689E-133</c:v>
+                  <c:v>1.4189470801856038E-118</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.2487507402573279E-161</c:v>
+                  <c:v>1.0442391151349028E-143</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.0199534977474548E-191</c:v>
+                  <c:v>3.0784221497536958E-171</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0569234539398551E-224</c:v>
+                  <c:v>3.6353887027564146E-201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3019,67 +3019,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.772719528556505E-61</c:v>
+                  <c:v>1.6845629445731123E-58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0364604351910705E-44</c:v>
+                  <c:v>8.0832797427983858E-43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4723553772967213E-30</c:v>
+                  <c:v>1.5537546254274087E-29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0818259210597978E-19</c:v>
+                  <c:v>1.1963870955049462E-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2616142933598104E-10</c:v>
+                  <c:v>3.6902472507164458E-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6831182530420505E-4</c:v>
+                  <c:v>4.5596727117917454E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2985750118604038</c:v>
+                  <c:v>2.256868919891573</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.703569022430564</c:v>
+                  <c:v>44.747982628185525</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5109975316600273</c:v>
+                  <c:v>3.5541442128758187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0728875504472707E-4</c:v>
+                  <c:v>1.1308137759882396E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8509380176644497E-11</c:v>
+                  <c:v>1.441257549870164E-9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.7584821386065272E-21</c:v>
+                  <c:v>7.3584536717134657E-18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.9014877739440319E-33</c:v>
+                  <c:v>1.5049635602035067E-28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9551865418972356E-47</c:v>
+                  <c:v>1.2329908929991013E-41</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1754786482916113E-64</c:v>
+                  <c:v>4.0465807682092834E-57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7170720127004862E-84</c:v>
+                  <c:v>5.3199924672782296E-75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0940988308482621E-107</c:v>
+                  <c:v>2.8017429091193157E-95</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.2550602013398701E-132</c:v>
+                  <c:v>5.9107148120952952E-118</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1010146991468525E-159</c:v>
+                  <c:v>4.9951230294183446E-143</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6047437000157286E-190</c:v>
+                  <c:v>1.6910125590986497E-170</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9321127337002756E-223</c:v>
+                  <c:v>2.2932000193680183E-200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3178,67 +3178,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>8.5350516336923524E-63</c:v>
+                  <c:v>4.3465588889591172E-60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0973960224532768E-46</c:v>
+                  <c:v>2.3950708180139908E-44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.058351360491709E-31</c:v>
+                  <c:v>5.2867114897176122E-31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.463366614752231E-20</c:v>
+                  <c:v>4.6746308566450878E-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5734345448946268E-11</c:v>
+                  <c:v>1.6557832785063944E-11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1385958432098077E-4</c:v>
+                  <c:v>2.3493846301818105E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68872197311475802</c:v>
+                  <c:v>0.13353626164681845</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.121980656634147</c:v>
+                  <c:v>3.0404562919724181</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3614383957642901</c:v>
+                  <c:v>0.27731462573098786</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1358139505797099E-5</c:v>
+                  <c:v>1.0132141482513959E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6101833926495975E-12</c:v>
+                  <c:v>1.4829420353852153E-10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3855088114945438E-21</c:v>
+                  <c:v>8.6944390243549387E-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2129044295622199E-33</c:v>
+                  <c:v>2.0419890840799353E-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2737567100727953E-47</c:v>
+                  <c:v>1.921143147811604E-42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.3570420561608575E-65</c:v>
+                  <c:v>7.2403655949010694E-58</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6700823912574652E-84</c:v>
+                  <c:v>1.093089508080455E-75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.2424320873887456E-107</c:v>
+                  <c:v>6.6106690476034466E-96</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.6309425670767002E-132</c:v>
+                  <c:v>1.601509668978191E-118</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9535258270900524E-159</c:v>
+                  <c:v>1.5542045444231463E-143</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2150869277202359E-189</c:v>
+                  <c:v>6.04200727469792E-171</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8362962988417401E-222</c:v>
+                  <c:v>9.4091149239453071E-201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3337,67 +3337,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4.8002998438610904E-65</c:v>
+                  <c:v>7.2949050843596686E-63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1901750549276944E-48</c:v>
+                  <c:v>4.6159900329742808E-47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8867545920172613E-34</c:v>
+                  <c:v>1.170050318430398E-33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5793245721708161E-22</c:v>
+                  <c:v>1.1880608250820148E-22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7333292716878761E-13</c:v>
+                  <c:v>4.8324489216097889E-14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7440525301140961E-6</c:v>
+                  <c:v>7.8739078655374041E-8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2890194116141005E-2</c:v>
+                  <c:v>5.139345858138722E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23147632165326984</c:v>
+                  <c:v>1.3437541583357025E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0099524017586401E-2</c:v>
+                  <c:v>1.4074282284290065E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0706375203861415E-6</c:v>
+                  <c:v>5.9050985957881962E-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7575997489908681E-13</c:v>
+                  <c:v>9.9248170337099364E-13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7257076390286463E-22</c:v>
+                  <c:v>6.6820900644005865E-21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6239190416114319E-34</c:v>
+                  <c:v>1.8021735054442268E-31</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.693505471209833E-49</c:v>
+                  <c:v>1.9470420732782516E-44</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.7007864041875335E-66</c:v>
+                  <c:v>8.4265253507455651E-60</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8975069433558952E-85</c:v>
+                  <c:v>1.4608855286369689E-77</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0054383796973391E-107</c:v>
+                  <c:v>1.014561323261289E-97</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.294418655521896E-132</c:v>
+                  <c:v>2.8225060235013407E-120</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.0489394931380888E-160</c:v>
+                  <c:v>3.1454726437113995E-145</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.0771950772431892E-190</c:v>
+                  <c:v>1.4042078850347083E-172</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.6821931229060973E-223</c:v>
+                  <c:v>2.5111425223551834E-202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3496,67 +3496,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3.1537456761112507E-68</c:v>
+                  <c:v>7.9636006972460643E-67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3636904351439807E-51</c:v>
+                  <c:v>5.7866487088403971E-51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.7167098775348849E-37</c:v>
+                  <c:v>1.6843766825091239E-37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4882815346811009E-25</c:v>
+                  <c:v>1.9640194433341045E-26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3959025754082075E-16</c:v>
+                  <c:v>9.1737479780483264E-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.120653993724148E-9</c:v>
+                  <c:v>1.7164939892949472E-11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.818195163862676E-5</c:v>
+                  <c:v>1.286566470215801E-7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1836333550026659E-4</c:v>
+                  <c:v>3.862928152284135E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2965799728830962E-5</c:v>
+                  <c:v>4.6461742370462708E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2700279683228366E-9</c:v>
+                  <c:v>2.2385603847917186E-10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3438321973300306E-15</c:v>
+                  <c:v>4.3205257253517937E-16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0275585657520365E-24</c:v>
+                  <c:v>3.3404027821059815E-24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9090413899260343E-36</c:v>
+                  <c:v>1.0345596546883561E-34</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.6173022088213348E-51</c:v>
+                  <c:v>1.2835319955477032E-47</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.4509294745334169E-68</c:v>
+                  <c:v>6.3789958580958559E-63</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.5184013281932346E-87</c:v>
+                  <c:v>1.2699668979579599E-80</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6305066561149096E-109</c:v>
+                  <c:v>1.0128075774730809E-100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5648822453700433E-134</c:v>
+                  <c:v>3.2356083137678485E-123</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.8030113506250907E-162</c:v>
+                  <c:v>4.1407537444896314E-148</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.103298814857776E-192</c:v>
+                  <c:v>2.1227425423023111E-175</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0539284506711036E-224</c:v>
+                  <c:v>4.3592292018404836E-205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3655,67 +3655,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.4203660895284532E-72</c:v>
+                  <c:v>5.6547714826465944E-72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1542489177668498E-55</c:v>
+                  <c:v>4.7185126875544717E-56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9875297222715653E-41</c:v>
+                  <c:v>1.5772104832828912E-42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6836473772628044E-29</c:v>
+                  <c:v>2.111877109045009E-31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4362299722705251E-19</c:v>
+                  <c:v>1.1327709174948025E-22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5227054088951777E-13</c:v>
+                  <c:v>2.4339407286729773E-16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1974517527149523E-9</c:v>
+                  <c:v>2.0949437454453122E-12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9296430476038229E-7</c:v>
+                  <c:v>7.2231925637567176E-11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2569627707235693E-8</c:v>
+                  <c:v>9.9765522212552936E-12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9893677323446982E-12</c:v>
+                  <c:v>5.5198366701933182E-15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.6498856422376129E-19</c:v>
+                  <c:v>1.2233942482900311E-20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.1473003942750935E-28</c:v>
+                  <c:v>1.0861782480285358E-28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6224687732481521E-39</c:v>
+                  <c:v>3.8630490999290274E-39</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.9486573160437658E-54</c:v>
+                  <c:v>5.5036881110170212E-52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1991862126447474E-70</c:v>
+                  <c:v>3.1410283879088111E-67</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.9044745372853186E-90</c:v>
+                  <c:v>7.1809907612920699E-85</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0887715054977207E-112</c:v>
+                  <c:v>6.576447150441698E-105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.9368515329985577E-137</c:v>
+                  <c:v>2.4126413156580066E-127</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7725144190540293E-164</c:v>
+                  <c:v>3.5455910863274503E-152</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.1458546845331759E-194</c:v>
+                  <c:v>2.0872717391934098E-179</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.6726280433943055E-227</c:v>
+                  <c:v>4.9222514883137206E-209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3814,93 +3814,93 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.1698591330199895E-77</c:v>
+                  <c:v>2.611778817051954E-78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4551904798808352E-60</c:v>
+                  <c:v>2.502642922184016E-62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3367791629529557E-45</c:v>
+                  <c:v>9.6062932960541008E-49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2565927776809186E-33</c:v>
+                  <c:v>1.4770910123514398E-37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8699654603748536E-24</c:v>
+                  <c:v>9.0981507572732418E-29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5925973907789084E-17</c:v>
+                  <c:v>2.244881712233218E-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1472496893576726E-13</c:v>
+                  <c:v>2.2188515902577073E-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0340640126431963E-12</c:v>
+                  <c:v>8.785318441543465E-17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5985724518808735E-13</c:v>
+                  <c:v>1.3934173725241144E-17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0826685177669419E-16</c:v>
+                  <c:v>8.85318202447294E-21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0869905736900152E-23</c:v>
+                  <c:v>2.2532637305609476E-26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8072908325688895E-32</c:v>
+                  <c:v>2.2973074379620302E-34</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6107696522460857E-43</c:v>
+                  <c:v>9.3825453257079761E-45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0855267250071324E-57</c:v>
+                  <c:v>1.5350293490700388E-57</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7774394712990251E-74</c:v>
+                  <c:v>1.0060212529353608E-72</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.071252404771733E-94</c:v>
+                  <c:v>2.6411440444929349E-90</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.8351032223806512E-116</c:v>
+                  <c:v>2.7776113599159448E-110</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6052439237051303E-140</c:v>
+                  <c:v>1.1701602241204138E-132</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.1597624480005855E-168</c:v>
+                  <c:v>1.9747569153208459E-157</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2699148614867035E-197</c:v>
+                  <c:v>1.334985089288211E-184</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.2777186735899366E-230</c:v>
+                  <c:v>3.6152109735010484E-214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:bandFmts/>
-        <c:axId val="94063616"/>
-        <c:axId val="113017600"/>
-        <c:axId val="52132480"/>
+        <c:axId val="86345216"/>
+        <c:axId val="86346752"/>
+        <c:axId val="86312704"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="94063616"/>
+        <c:axId val="86345216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113017600"/>
+        <c:crossAx val="86346752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113017600"/>
+        <c:axId val="86346752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3914,18 +3914,18 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="94063616"/>
+        <c:crossAx val="86345216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="52132480"/>
+        <c:axId val="86312704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113017600"/>
+        <c:crossAx val="86346752"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -3933,7 +3933,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3952,8 +3952,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.12338653190739217"/>
           <c:y val="6.853407212987267E-2"/>
-          <c:w val="0.84264347553570751"/>
-          <c:h val="0.76183095168659498"/>
+          <c:w val="0.84264347553570773"/>
+          <c:h val="0.7618309516865952"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3984,76 +3984,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-0.45494882977728679</c:v>
+                  <c:v>-0.43608704341352222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61245415944821646</c:v>
+                  <c:v>-0.49612774922504332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.40013015396556018</c:v>
+                  <c:v>-0.92863162850692582</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40711583958763065</c:v>
+                  <c:v>0.86715352433340165</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.72179757715011306</c:v>
+                  <c:v>-0.48742116907284361</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.92227788780297E-2</c:v>
+                  <c:v>-0.55397102522600239</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.79092925887351306</c:v>
+                  <c:v>-0.9685477463337886</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52658354694356468</c:v>
+                  <c:v>0.72814004018157341</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.5724823042613294</c:v>
+                  <c:v>0.99669699848249227</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.89412247177136051</c:v>
+                  <c:v>-0.87683285144487666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.8107009131336493E-2</c:v>
+                  <c:v>0.67238254724709989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52958047529711738</c:v>
+                  <c:v>0.33887087643372471</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9413393073183336</c:v>
+                  <c:v>0.92167581438565449</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.58183040090739979</c:v>
+                  <c:v>-0.58639653733706432</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.62363716663285551</c:v>
+                  <c:v>0.81059876482218307</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.40719050806303336</c:v>
+                  <c:v>-9.3108853341397513E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.76702734208103074</c:v>
+                  <c:v>0.31132912460798323</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.37665271132266209</c:v>
+                  <c:v>0.93713218699022871</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.99816658225921095</c:v>
+                  <c:v>-0.78853678559780427</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-6.7242189519467033E-2</c:v>
+                  <c:v>-0.32657755376861353</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.46482500501671886</c:v>
+                  <c:v>0.30183954881329278</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.94454481735111351</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.8437196991796085E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.37117180713146958</c:v>
+                  <c:v>-0.89686796957963111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4065,86 +4059,80 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-0.56966465033530134</c:v>
+                  <c:v>-0.53944624738595981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.6977469893933261E-3</c:v>
+                  <c:v>-0.33296331593202622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.5343094440234416</c:v>
+                  <c:v>-0.85333449285792562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.881263461610942E-2</c:v>
+                  <c:v>7.1598339277915507E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.62484266596713844</c:v>
+                  <c:v>-0.53012801146387045</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.32974631893424444</c:v>
+                  <c:v>-0.20190779141177995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.67811096348764388</c:v>
+                  <c:v>-0.67730826079348083</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.7377359443756912E-2</c:v>
+                  <c:v>-3.4628763485968495E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.59624171435886308</c:v>
+                  <c:v>0.36809955682062712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.70650224014981111</c:v>
+                  <c:v>-0.97260401173988509</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.33107151128583484</c:v>
+                  <c:v>-0.10306340611760198</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.15822202665347207</c:v>
+                  <c:v>-0.22107570718823183</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.12979249187972794</c:v>
+                  <c:v>0.20756007974634783</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.4200098251752215E-3</c:v>
+                  <c:v>-0.53644309007957758</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-5.019525356813416E-2</c:v>
+                  <c:v>6.7644410455975773E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.47519508165434982</c:v>
+                  <c:v>-0.27360695686448377</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0287248361482773E-2</c:v>
+                  <c:v>-0.22085105210691086</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.53890257123321139</c:v>
+                  <c:v>-1.4421309340076766E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.79888424331675523</c:v>
+                  <c:v>-0.58802776781949528</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.2781014385031913</c:v>
+                  <c:v>-0.86337098853440986</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.8489030374808495E-2</c:v>
+                  <c:v>1.46831500291707E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.79186250015112303</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.26822094475340125</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-9.8919587845817156E-2</c:v>
+                  <c:v>-0.57622092897810984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="52579328"/>
-        <c:axId val="51679616"/>
+        <c:axId val="86354176"/>
+        <c:axId val="86355968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52579328"/>
+        <c:axId val="86354176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4153,12 +4141,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51679616"/>
+        <c:crossAx val="86355968"/>
         <c:crossesAt val="-1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51679616"/>
+        <c:axId val="86355968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -4168,7 +4156,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52579328"/>
+        <c:crossAx val="86354176"/>
         <c:crossesAt val="-1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4177,7 +4165,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4198,10 +4186,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.7800594308971345E-2"/>
-          <c:y val="2.2334967563016915E-2"/>
+          <c:x val="5.7800594308971366E-2"/>
+          <c:y val="2.2334967563016922E-2"/>
           <c:w val="0.79441185476815401"/>
-          <c:h val="0.86294532758876885"/>
+          <c:h val="0.86294532758876896"/>
         </c:manualLayout>
       </c:layout>
       <c:surface3DChart>
@@ -7545,26 +7533,26 @@
           </c:val>
         </c:ser>
         <c:bandFmts/>
-        <c:axId val="135168384"/>
-        <c:axId val="135169920"/>
-        <c:axId val="54036224"/>
+        <c:axId val="89612672"/>
+        <c:axId val="89614208"/>
+        <c:axId val="89609088"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="135168384"/>
+        <c:axId val="89612672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135169920"/>
+        <c:crossAx val="89614208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135169920"/>
+        <c:axId val="89614208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7578,19 +7566,19 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="135168384"/>
+        <c:crossAx val="89612672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="54036224"/>
+        <c:axId val="89609088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135169920"/>
+        <c:crossAx val="89614208"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -7598,7 +7586,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8005,7 +7993,7 @@
   <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+      <selection activeCell="A26" sqref="A26:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8037,11 +8025,11 @@
     <row r="2" spans="1:30">
       <c r="A2">
         <f ca="1">RAND()*2-1</f>
-        <v>-0.67132662884887528</v>
+        <v>-0.40157702848827803</v>
       </c>
       <c r="B2">
-        <f ca="1">-0.3+0.5*A2+0.2*NORMSINV(RAND())*0.2</f>
-        <v>-0.63443783349238081</v>
+        <f ca="1">-0.3+0.5*A2+0.2*NORMSINV(RAND())</f>
+        <v>-0.18437754766733438</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -8123,83 +8111,83 @@
       </c>
       <c r="J3" s="24">
         <f t="shared" ref="J3:S12" si="0">1/POWER(2*PI(),2/2)/SQRT($F$11)*EXP(-1/2*($F$9*(J$2-$F$13)*(J$2-$F$13)+($G$9+$F$10)*(J$2-$F$13)*($I3-$F$14)+$G$10*($I3-$F$14)*($I3-$F$14)))</f>
-        <v>1.2872973707523191E-153</v>
+        <v>4.3401297278226953E-177</v>
       </c>
       <c r="K3" s="24">
         <f t="shared" si="0"/>
-        <v>3.7257037417635664E-138</v>
+        <v>2.6152709689426887E-162</v>
       </c>
       <c r="L3" s="24">
         <f t="shared" si="0"/>
-        <v>2.6199015550540518E-125</v>
+        <v>6.3128451253613007E-150</v>
       </c>
       <c r="M3" s="24">
         <f t="shared" si="0"/>
-        <v>4.4761934385561901E-115</v>
+        <v>6.104189908831043E-140</v>
       </c>
       <c r="N3" s="24">
         <f t="shared" si="0"/>
-        <v>1.8581464452287135E-107</v>
+        <v>2.3644242138792669E-132</v>
       </c>
       <c r="O3" s="24">
         <f t="shared" si="0"/>
-        <v>1.8741236897237074E-102</v>
+        <v>3.6687424078120807E-127</v>
       </c>
       <c r="P3" s="24">
         <f t="shared" si="0"/>
-        <v>4.5926545596469753E-100</v>
+        <v>2.2803604564161641E-124</v>
       </c>
       <c r="Q3" s="24">
         <f t="shared" si="0"/>
-        <v>2.7344912008391483E-100</v>
+        <v>5.6778542847448047E-124</v>
       </c>
       <c r="R3" s="24">
         <f t="shared" si="0"/>
-        <v>3.9558197878176083E-103</v>
+        <v>5.6631679820686056E-126</v>
       </c>
       <c r="S3" s="24">
         <f t="shared" si="0"/>
-        <v>1.390412571573475E-108</v>
+        <v>2.2627110883474967E-130</v>
       </c>
       <c r="T3" s="24">
         <f t="shared" ref="T3:AD12" si="1">1/POWER(2*PI(),2/2)/SQRT($F$11)*EXP(-1/2*($F$9*(T$2-$F$13)*(T$2-$F$13)+($G$9+$F$10)*(T$2-$F$13)*($I3-$F$14)+$G$10*($I3-$F$14)*($I3-$F$14)))</f>
-        <v>1.1874028639093723E-116</v>
+        <v>3.6215394979711163E-137</v>
       </c>
       <c r="U3" s="24">
         <f t="shared" si="1"/>
-        <v>2.4637674726055239E-127</v>
+        <v>2.3219443515866622E-146</v>
       </c>
       <c r="V3" s="24">
         <f t="shared" si="1"/>
-        <v>1.2420771186424214E-140</v>
+        <v>5.9635497677409368E-158</v>
       </c>
       <c r="W3" s="24">
         <f t="shared" si="1"/>
-        <v>1.521404247517038E-156</v>
+        <v>6.1355337396743218E-172</v>
       </c>
       <c r="X3" s="24">
         <f t="shared" si="1"/>
-        <v>4.5278069983060553E-175</v>
+        <v>2.5286825366729247E-188</v>
       </c>
       <c r="Y3" s="24">
         <f t="shared" si="1"/>
-        <v>3.2739979815835672E-196</v>
+        <v>4.17475246491354E-207</v>
       </c>
       <c r="Z3" s="24">
         <f t="shared" si="1"/>
-        <v>5.7519635756922535E-220</v>
+        <v>2.7609695072200383E-228</v>
       </c>
       <c r="AA3" s="24">
         <f t="shared" si="1"/>
-        <v>2.4552802251980389E-246</v>
+        <v>7.3145388430386715E-252</v>
       </c>
       <c r="AB3" s="24">
         <f t="shared" si="1"/>
-        <v>2.5464386874669724E-275</v>
+        <v>7.7625918280023216E-278</v>
       </c>
       <c r="AC3" s="24">
         <f t="shared" si="1"/>
-        <v>6.4167127850238656E-307</v>
+        <v>3.3000537292078489E-306</v>
       </c>
       <c r="AD3" s="25">
         <f t="shared" si="1"/>
@@ -8224,94 +8212,94 @@
       </c>
       <c r="F4" s="17">
         <f>COUNT(B5:B100)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="18">
         <f>SUM(A5:A100)</f>
-        <v>-0.8015349449678828</v>
+        <v>-0.55328748654987914</v>
       </c>
       <c r="I4" s="30">
         <v>-0.9</v>
       </c>
       <c r="J4" s="24">
         <f t="shared" si="0"/>
-        <v>6.0228724680971742E-141</v>
+        <v>7.0945481946436184E-161</v>
       </c>
       <c r="K4" s="24">
         <f t="shared" si="0"/>
-        <v>2.1298972554006937E-125</v>
+        <v>4.9092048079207578E-146</v>
       </c>
       <c r="L4" s="24">
         <f t="shared" si="0"/>
-        <v>1.8300411676939832E-112</v>
+        <v>1.360792848914712E-133</v>
       </c>
       <c r="M4" s="24">
         <f t="shared" si="0"/>
-        <v>3.820412734800367E-102</v>
+        <v>1.5110100249642803E-123</v>
       </c>
       <c r="N4" s="24">
         <f t="shared" si="0"/>
-        <v>1.937790968892158E-94</v>
+        <v>6.7210501040063643E-116</v>
       </c>
       <c r="O4" s="24">
         <f t="shared" si="0"/>
-        <v>2.3880905495083937E-89</v>
+        <v>1.1975713017219374E-110</v>
       </c>
       <c r="P4" s="24">
         <f t="shared" si="0"/>
-        <v>7.1505899032355773E-87</v>
+        <v>8.5479128798391845E-108</v>
       </c>
       <c r="Q4" s="24">
         <f t="shared" si="0"/>
-        <v>5.2021176710855944E-87</v>
+        <v>2.4440678269840481E-107</v>
       </c>
       <c r="R4" s="24">
         <f t="shared" si="0"/>
-        <v>9.1952955129687174E-90</v>
+        <v>2.7993737185017481E-109</v>
       </c>
       <c r="S4" s="24">
         <f t="shared" si="0"/>
-        <v>3.9491027089839295E-95</v>
+        <v>1.2844078988023914E-113</v>
       </c>
       <c r="T4" s="24">
         <f t="shared" si="1"/>
-        <v>4.1207701052788762E-103</v>
+        <v>2.3606930113552785E-120</v>
       </c>
       <c r="U4" s="24">
         <f t="shared" si="1"/>
-        <v>1.0447335997681672E-113</v>
+        <v>1.7380830362406387E-129</v>
       </c>
       <c r="V4" s="24">
         <f t="shared" si="1"/>
-        <v>6.4354653651878461E-127</v>
+        <v>5.1262052051676366E-141</v>
       </c>
       <c r="W4" s="24">
         <f t="shared" si="1"/>
-        <v>9.6316694880966197E-143</v>
+        <v>6.056419004801826E-155</v>
       </c>
       <c r="X4" s="24">
         <f t="shared" si="1"/>
-        <v>3.5024375810038523E-161</v>
+        <v>2.8663571300169587E-171</v>
       </c>
       <c r="Y4" s="24">
         <f t="shared" si="1"/>
-        <v>3.0944712780742116E-182</v>
+        <v>5.4342441419620601E-190</v>
       </c>
       <c r="Z4" s="24">
         <f t="shared" si="1"/>
-        <v>6.6427778192623656E-206</v>
+        <v>4.1270758612651151E-211</v>
       </c>
       <c r="AA4" s="24">
         <f t="shared" si="1"/>
-        <v>3.4646567649446235E-232</v>
+        <v>1.2555679399373812E-234</v>
       </c>
       <c r="AB4" s="24">
         <f t="shared" si="1"/>
-        <v>4.3905398697948047E-261</v>
+        <v>1.5301444928002106E-260</v>
       </c>
       <c r="AC4" s="24">
         <f t="shared" si="1"/>
-        <v>1.3518324053397364E-292</v>
+        <v>7.4699746708022764E-289</v>
       </c>
       <c r="AD4" s="25">
         <f t="shared" si="1"/>
@@ -8320,784 +8308,784 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="4">
-        <v>-0.45494882977728679</v>
+        <v>-0.43608704341352222</v>
       </c>
       <c r="B5" s="5">
-        <v>-0.56966465033530134</v>
+        <v>-0.53944624738595981</v>
       </c>
       <c r="C5" s="10">
         <f>A5*A5</f>
-        <v>0.20697843771572266</v>
+        <v>0.19017190943314721</v>
       </c>
       <c r="D5" s="10">
         <f>A5*B5</f>
-        <v>0.25916826603553261</v>
+        <v>0.23524551910306271</v>
       </c>
       <c r="F5" s="21">
         <f>G4</f>
-        <v>-0.8015349449678828</v>
+        <v>-0.55328748654987914</v>
       </c>
       <c r="G5" s="22">
         <f>SUM(C5:C100)</f>
-        <v>8.5086784162026206</v>
+        <v>10.850686864600641</v>
       </c>
       <c r="I5" s="30">
         <v>-0.8</v>
       </c>
       <c r="J5" s="24">
         <f t="shared" si="0"/>
-        <v>3.2917325466635787E-129</v>
+        <v>7.5433199466632821E-146</v>
       </c>
       <c r="K5" s="24">
         <f t="shared" si="0"/>
-        <v>1.4223454214660933E-113</v>
+        <v>5.9940638065331339E-131</v>
       </c>
       <c r="L5" s="24">
         <f t="shared" si="0"/>
-        <v>1.4932510734512777E-100</v>
+        <v>1.9079836760464042E-118</v>
       </c>
       <c r="M5" s="24">
         <f t="shared" si="0"/>
-        <v>3.8089722712585658E-90</v>
+        <v>2.4328896323593222E-108</v>
       </c>
       <c r="N5" s="24">
         <f t="shared" si="0"/>
-        <v>2.3606413246118423E-82</v>
+        <v>1.2426951990706649E-100</v>
       </c>
       <c r="O5" s="24">
         <f t="shared" si="0"/>
-        <v>3.5546710629916942E-77</v>
+        <v>2.5427361255205734E-95</v>
       </c>
       <c r="P5" s="24">
         <f t="shared" si="0"/>
-        <v>1.3005170525410534E-74</v>
+        <v>2.0841665716599008E-92</v>
       </c>
       <c r="Q5" s="24">
         <f t="shared" si="0"/>
-        <v>1.1560587424558776E-74</v>
+        <v>6.8431808630306453E-92</v>
       </c>
       <c r="R5" s="24">
         <f t="shared" si="0"/>
-        <v>2.4968414905586357E-77</v>
+        <v>9.0007369782535247E-94</v>
       </c>
       <c r="S5" s="24">
         <f t="shared" si="0"/>
-        <v>1.3102351965070253E-82</v>
+        <v>4.7423388624581278E-98</v>
       </c>
       <c r="T5" s="24">
         <f t="shared" si="1"/>
-        <v>1.6705318862562245E-90</v>
+        <v>1.000925042936996E-104</v>
       </c>
       <c r="U5" s="24">
         <f t="shared" si="1"/>
-        <v>5.1749659505938557E-101</v>
+        <v>8.462622872383753E-114</v>
       </c>
       <c r="V5" s="24">
         <f t="shared" si="1"/>
-        <v>3.8949998256985811E-114</v>
+        <v>2.8661761605759866E-125</v>
       </c>
       <c r="W5" s="24">
         <f t="shared" si="1"/>
-        <v>7.122863265333161E-130</v>
+        <v>3.8886175449673463E-139</v>
       </c>
       <c r="X5" s="24">
         <f t="shared" si="1"/>
-        <v>3.1648198311906539E-148</v>
+        <v>2.1134016546308035E-155</v>
       </c>
       <c r="Y5" s="24">
         <f t="shared" si="1"/>
-        <v>3.4165721311172854E-169</v>
+        <v>4.6011174012469992E-174</v>
       </c>
       <c r="Z5" s="24">
         <f t="shared" si="1"/>
-        <v>8.9614733115773485E-193</v>
+        <v>4.0127217537521698E-195</v>
       </c>
       <c r="AA5" s="24">
         <f t="shared" si="1"/>
-        <v>5.7110433457589756E-219</v>
+        <v>1.4018748285623727E-218</v>
       </c>
       <c r="AB5" s="24">
         <f t="shared" si="1"/>
-        <v>8.8429814905175617E-248</v>
+        <v>1.9618865470566182E-244</v>
       </c>
       <c r="AC5" s="24">
         <f t="shared" si="1"/>
-        <v>3.3268191637127541E-279</v>
+        <v>1.0998488382962397E-272</v>
       </c>
       <c r="AD5" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.4699409560529098E-303</v>
       </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="8">
-        <v>0.61245415944821646</v>
+        <v>-0.49612774922504332</v>
       </c>
       <c r="B6" s="9">
-        <v>-7.6977469893933261E-3</v>
+        <v>-0.33296331593202622</v>
       </c>
       <c r="C6" s="10">
         <f t="shared" ref="C6:C36" si="2">A6*A6</f>
-        <v>0.37510009742542133</v>
+        <v>0.24614274355110749</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" ref="D6:D36" si="3">A6*B6</f>
-        <v>-4.7145171620339285E-3</v>
+        <v>0.16519234050786316</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="23">
         <f>SUM(B5:B100)</f>
-        <v>-7.8338701775794162</v>
+        <v>-6.809816565769756</v>
       </c>
       <c r="I6" s="30">
         <v>-0.7</v>
       </c>
       <c r="J6" s="24">
         <f t="shared" si="0"/>
-        <v>2.1015586032096709E-118</v>
+        <v>5.2169426983564109E-132</v>
       </c>
       <c r="K6" s="24">
         <f t="shared" si="0"/>
-        <v>1.1095518287382603E-102</v>
+        <v>4.7604425163583524E-117</v>
       </c>
       <c r="L6" s="24">
         <f t="shared" si="0"/>
-        <v>1.4233145892402958E-89</v>
+        <v>1.7400953398359167E-104</v>
       </c>
       <c r="M6" s="24">
         <f t="shared" si="0"/>
-        <v>4.436101018907996E-79</v>
+        <v>2.5479636178709916E-94</v>
       </c>
       <c r="N6" s="24">
         <f t="shared" si="0"/>
-        <v>3.3593029602797122E-71</v>
+        <v>1.4945410938249324E-86</v>
       </c>
       <c r="O6" s="24">
         <f t="shared" si="0"/>
-        <v>6.1807921170975849E-66</v>
+        <v>3.5116963741699094E-81</v>
       </c>
       <c r="P6" s="24">
         <f t="shared" si="0"/>
-        <v>2.7630345791002599E-63</v>
+        <v>3.3053733209617928E-78</v>
       </c>
       <c r="Q6" s="24">
         <f t="shared" si="0"/>
-        <v>3.0010672136052243E-63</v>
+        <v>1.2462883504044242E-77</v>
       </c>
       <c r="R6" s="24">
         <f t="shared" si="0"/>
-        <v>7.9197658786794139E-66</v>
+        <v>1.8823960961555037E-79</v>
       </c>
       <c r="S6" s="24">
         <f t="shared" si="0"/>
-        <v>5.0780407697092969E-71</v>
+        <v>1.1389324094034384E-83</v>
       </c>
       <c r="T6" s="24">
         <f t="shared" si="1"/>
-        <v>7.9109245469447809E-79</v>
+        <v>2.7604465930748572E-90</v>
       </c>
       <c r="U6" s="24">
         <f t="shared" si="1"/>
-        <v>2.9943703943476291E-89</v>
+        <v>2.6801259690209809E-99</v>
       </c>
       <c r="V6" s="24">
         <f t="shared" si="1"/>
-        <v>2.7537912589149964E-102</v>
+        <v>1.042378690438261E-110</v>
       </c>
       <c r="W6" s="24">
         <f t="shared" si="1"/>
-        <v>6.1532382754588217E-118</v>
+        <v>1.6240159934297502E-124</v>
       </c>
       <c r="X6" s="24">
         <f t="shared" si="1"/>
-        <v>3.3405937757066271E-136</v>
+        <v>1.0135601783186917E-140</v>
       </c>
       <c r="Y6" s="24">
         <f t="shared" si="1"/>
-        <v>4.4064700359935195E-157</v>
+        <v>2.5339803133830263E-159</v>
       </c>
       <c r="Z6" s="24">
         <f t="shared" si="1"/>
-        <v>1.4122292225318896E-180</v>
+        <v>2.5377649427882879E-180</v>
       </c>
       <c r="AA6" s="24">
         <f t="shared" si="1"/>
-        <v>1.0996811619343864E-206</v>
+        <v>1.0181083766699777E-203</v>
       </c>
       <c r="AB6" s="24">
         <f t="shared" si="1"/>
-        <v>2.0805377296812636E-235</v>
+        <v>1.6361800298196436E-229</v>
       </c>
       <c r="AC6" s="24">
         <f t="shared" si="1"/>
-        <v>9.5638251024165666E-267</v>
+        <v>1.0533255637848634E-257</v>
       </c>
       <c r="AD6" s="25">
         <f t="shared" si="1"/>
-        <v>1.0681564659601572E-300</v>
+        <v>2.7163680972135301E-288</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="8">
-        <v>-0.40013015396556018</v>
+        <v>-0.92863162850692582</v>
       </c>
       <c r="B7" s="9">
-        <v>-0.5343094440234416</v>
+        <v>-0.85333449285792562</v>
       </c>
       <c r="C7" s="10">
         <f t="shared" si="2"/>
-        <v>0.1601041401125029</v>
+        <v>0.86235670146342513</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="3"/>
-        <v>0.21379332010235255</v>
+        <v>0.79243339976378713</v>
       </c>
       <c r="F7" s="20">
         <f>SUM(D5:D100)</f>
-        <v>4.3119066321299577</v>
+        <v>5.1022485164665623</v>
       </c>
       <c r="I7" s="30">
         <v>-0.6</v>
       </c>
       <c r="J7" s="24">
         <f t="shared" si="0"/>
-        <v>1.5673087487898978E-108</v>
+        <v>2.3468501354978793E-119</v>
       </c>
       <c r="K7" s="24">
         <f t="shared" si="0"/>
-        <v>1.01108157723763E-92</v>
+        <v>2.4591727724398771E-104</v>
       </c>
       <c r="L7" s="24">
         <f t="shared" si="0"/>
-        <v>1.5847656731432356E-79</v>
+        <v>1.0322554534639795E-91</v>
       </c>
       <c r="M7" s="24">
         <f t="shared" si="0"/>
-        <v>6.0351925812583103E-69</v>
+        <v>1.7357204890532285E-81</v>
       </c>
       <c r="N7" s="24">
         <f t="shared" si="0"/>
-        <v>5.5842445508163613E-61</v>
+        <v>1.169140901015813E-73</v>
       </c>
       <c r="O7" s="24">
         <f t="shared" si="0"/>
-        <v>1.2554081515296659E-55</v>
+        <v>3.1546296286872678E-68</v>
       </c>
       <c r="P7" s="24">
         <f t="shared" si="0"/>
-        <v>6.8572925557760829E-53</v>
+        <v>3.4097643182105577E-65</v>
       </c>
       <c r="Q7" s="24">
         <f t="shared" si="0"/>
-        <v>9.1005498180595231E-53</v>
+        <v>1.4763686188545404E-64</v>
       </c>
       <c r="R7" s="24">
         <f t="shared" si="0"/>
-        <v>2.9344708747509939E-55</v>
+        <v>2.5607059405594272E-66</v>
       </c>
       <c r="S7" s="24">
         <f t="shared" si="0"/>
-        <v>2.2990011808612778E-60</v>
+        <v>1.7791766591149292E-70</v>
       </c>
       <c r="T7" s="24">
         <f t="shared" si="1"/>
-        <v>4.376186320281785E-68</v>
+        <v>4.9519117440736973E-77</v>
       </c>
       <c r="U7" s="24">
         <f t="shared" si="1"/>
-        <v>2.0239493178308368E-78</v>
+        <v>5.5210436289894328E-86</v>
       </c>
       <c r="V7" s="24">
         <f t="shared" si="1"/>
-        <v>2.2743153408607954E-91</v>
+        <v>2.4658344866105422E-97</v>
       </c>
       <c r="W7" s="24">
         <f t="shared" si="1"/>
-        <v>6.2093901371262382E-107</v>
+        <v>4.4116507625633468E-111</v>
       </c>
       <c r="X7" s="24">
         <f t="shared" si="1"/>
-        <v>4.1190250501015663E-125</v>
+        <v>3.1617883012661286E-127</v>
       </c>
       <c r="Y7" s="24">
         <f t="shared" si="1"/>
-        <v>6.6387625854451134E-146</v>
+        <v>9.0773464461375457E-146</v>
       </c>
       <c r="Z7" s="24">
         <f t="shared" si="1"/>
-        <v>2.5997229092184746E-169</v>
+        <v>1.0439495075958681E-166</v>
       </c>
       <c r="AA7" s="24">
         <f t="shared" si="1"/>
-        <v>2.4735130371844518E-195</v>
+        <v>4.8094402804079742E-190</v>
       </c>
       <c r="AB7" s="24">
         <f t="shared" si="1"/>
-        <v>5.7180581177171578E-224</v>
+        <v>8.8757291090810844E-216</v>
       </c>
       <c r="AC7" s="24">
         <f t="shared" si="1"/>
-        <v>3.211664309494448E-255</v>
+        <v>6.561573550580592E-244</v>
       </c>
       <c r="AD7" s="25">
         <f t="shared" si="1"/>
-        <v>4.3828735882925767E-289</v>
+        <v>1.9431504326576342E-274</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="8">
-        <v>0.40711583958763065</v>
+        <v>0.86715352433340165</v>
       </c>
       <c r="B8" s="9">
-        <v>-7.881263461610942E-2</v>
+        <v>7.1598339277915507E-2</v>
       </c>
       <c r="C8" s="10">
         <f t="shared" si="2"/>
-        <v>0.1657433068431414</v>
+        <v>0.75195523476383941</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="3"/>
-        <v>-3.2085871911850548E-2</v>
+        <v>6.2086752241263053E-2</v>
       </c>
       <c r="I8" s="30">
         <v>-0.5</v>
       </c>
       <c r="J8" s="24">
         <f t="shared" si="0"/>
-        <v>1.3654119513643668E-99</v>
+        <v>6.8670530287637294E-108</v>
       </c>
       <c r="K8" s="24">
         <f t="shared" si="0"/>
-        <v>1.0762691457473981E-83</v>
+        <v>8.2631666385268628E-93</v>
       </c>
       <c r="L8" s="24">
         <f t="shared" si="0"/>
-        <v>2.0612245168026968E-70</v>
+        <v>3.983062129760531E-80</v>
       </c>
       <c r="M8" s="24">
         <f t="shared" si="0"/>
-        <v>9.5912879068466405E-60</v>
+        <v>7.6909875881628767E-70</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" si="0"/>
-        <v>1.0843657074624234E-51</v>
+        <v>5.9489675512118436E-62</v>
       </c>
       <c r="O8" s="24">
         <f t="shared" si="0"/>
-        <v>2.9786662240423386E-46</v>
+        <v>1.8432979900673982E-56</v>
       </c>
       <c r="P8" s="24">
         <f t="shared" si="0"/>
-        <v>1.9879942589142278E-43</v>
+        <v>2.2879364585667096E-53</v>
       </c>
       <c r="Q8" s="24">
         <f t="shared" si="0"/>
-        <v>3.2237075015461044E-43</v>
+        <v>1.1375927829222007E-52</v>
       </c>
       <c r="R8" s="24">
         <f t="shared" si="0"/>
-        <v>1.2701158998505199E-45</v>
+        <v>2.2658134857186555E-54</v>
       </c>
       <c r="S8" s="24">
         <f t="shared" si="0"/>
-        <v>1.215845228006393E-50</v>
+        <v>1.8078231621868855E-58</v>
       </c>
       <c r="T8" s="24">
         <f t="shared" si="1"/>
-        <v>2.8278766074449799E-58</v>
+        <v>5.7780619691742591E-65</v>
       </c>
       <c r="U8" s="24">
         <f t="shared" si="1"/>
-        <v>1.5980480558987194E-68</v>
+        <v>7.3978054198630229E-74</v>
       </c>
       <c r="V8" s="24">
         <f t="shared" si="1"/>
-        <v>2.1941506042476127E-81</v>
+        <v>3.7941812442880615E-85</v>
       </c>
       <c r="W8" s="24">
         <f t="shared" si="1"/>
-        <v>7.3196489262612418E-97</v>
+        <v>7.7952078834227415E-99</v>
       </c>
       <c r="X8" s="24">
         <f t="shared" si="1"/>
-        <v>5.9328215818740505E-115</v>
+        <v>6.4155189187625472E-115</v>
       </c>
       <c r="Y8" s="24">
         <f t="shared" si="1"/>
-        <v>1.1683677033644512E-135</v>
+        <v>2.1150972394579867E-133</v>
       </c>
       <c r="Z8" s="24">
         <f t="shared" si="1"/>
-        <v>5.5904274775982034E-159</v>
+        <v>2.7933370819382393E-154</v>
       </c>
       <c r="AA8" s="24">
         <f t="shared" si="1"/>
-        <v>6.4991672205115517E-185</v>
+        <v>1.4777835059031146E-177</v>
       </c>
       <c r="AB8" s="24">
         <f t="shared" si="1"/>
-        <v>1.8357672746676531E-213</v>
+        <v>3.1317907930327179E-203</v>
       </c>
       <c r="AC8" s="24">
         <f t="shared" si="1"/>
-        <v>1.2598671578206338E-244</v>
+        <v>2.6586987477212867E-231</v>
       </c>
       <c r="AD8" s="25">
         <f t="shared" si="1"/>
-        <v>2.1007728939242222E-278</v>
+        <v>9.0414894293611003E-262</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="8">
-        <v>-0.72179757715011306</v>
+        <v>-0.48742116907284361</v>
       </c>
       <c r="B9" s="9">
-        <v>-0.62484266596713844</v>
+        <v>-0.53012801146387045</v>
       </c>
       <c r="C9" s="10">
         <f t="shared" si="2"/>
-        <v>0.52099174237977341</v>
+        <v>0.23757939606033759</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="3"/>
-        <v>0.45100992239509791</v>
+        <v>0.25839561510598158</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="17">
         <f>alpha+beta*F4</f>
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="G9" s="18">
         <f>beta*G4</f>
-        <v>-20.038373624197071</v>
+        <v>-13.832187163746978</v>
       </c>
       <c r="I9" s="30">
         <v>-0.4</v>
       </c>
       <c r="J9" s="24">
         <f t="shared" si="0"/>
-        <v>1.3895332107771758E-91</v>
+        <v>1.3069867885974149E-97</v>
       </c>
       <c r="K9" s="24">
         <f t="shared" si="0"/>
-        <v>1.338294436051346E-75</v>
+        <v>1.8060082634127149E-82</v>
       </c>
       <c r="L9" s="24">
         <f t="shared" si="0"/>
-        <v>3.1317106740963179E-62</v>
+        <v>9.9968397056832653E-70</v>
       </c>
       <c r="M9" s="24">
         <f t="shared" si="0"/>
-        <v>1.7805690151396064E-51</v>
+        <v>2.2166656108822676E-59</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="0"/>
-        <v>2.45970605207421E-43</v>
+        <v>1.9689382632134623E-51</v>
       </c>
       <c r="O9" s="24">
         <f t="shared" si="0"/>
-        <v>8.2557175600705702E-38</v>
+        <v>7.0058119198646336E-46</v>
       </c>
       <c r="P9" s="24">
         <f t="shared" si="0"/>
-        <v>6.7324581528562679E-35</v>
+        <v>9.9857182669576941E-43</v>
       </c>
       <c r="Q9" s="24">
         <f t="shared" si="0"/>
-        <v>1.3339505103034645E-34</v>
+        <v>5.7015718780929364E-42</v>
       </c>
       <c r="R9" s="24">
         <f t="shared" si="0"/>
-        <v>6.4217440401114407E-37</v>
+        <v>1.3040803724633401E-43</v>
       </c>
       <c r="S9" s="24">
         <f t="shared" si="0"/>
-        <v>7.5112719143722286E-42</v>
+        <v>1.1948367532964767E-47</v>
       </c>
       <c r="T9" s="24">
         <f t="shared" si="1"/>
-        <v>2.1346230553967154E-49</v>
+        <v>4.3853801612996644E-54</v>
       </c>
       <c r="U9" s="24">
         <f t="shared" si="1"/>
-        <v>1.4739275156220369E-59</v>
+        <v>6.4476340778945854E-63</v>
       </c>
       <c r="V9" s="24">
         <f t="shared" si="1"/>
-        <v>2.4727389854959157E-72</v>
+        <v>3.7974142547862293E-74</v>
       </c>
       <c r="W9" s="24">
         <f t="shared" si="1"/>
-        <v>1.0079236706979873E-87</v>
+        <v>8.9592164805003139E-88</v>
       </c>
       <c r="X9" s="24">
         <f t="shared" si="1"/>
-        <v>9.9821532267836843E-106</v>
+        <v>8.467331142892315E-104</v>
       </c>
       <c r="Y9" s="24">
         <f t="shared" si="1"/>
-        <v>2.4019725418024967E-126</v>
+        <v>3.2056604463242159E-122</v>
       </c>
       <c r="Z9" s="24">
         <f t="shared" si="1"/>
-        <v>1.4042973095851739E-149</v>
+        <v>4.8616417452852796E-143</v>
       </c>
       <c r="AA9" s="24">
         <f t="shared" si="1"/>
-        <v>1.9947905773622161E-175</v>
+        <v>2.9535399276433651E-166</v>
       </c>
       <c r="AB9" s="24">
         <f t="shared" si="1"/>
-        <v>6.8846643424595539E-204</v>
+        <v>7.1878201180838638E-192</v>
       </c>
       <c r="AC9" s="24">
         <f t="shared" si="1"/>
-        <v>5.7731847205369266E-235</v>
+        <v>7.0072242049570298E-220</v>
       </c>
       <c r="AD9" s="25">
         <f t="shared" si="1"/>
-        <v>1.1762384032414685E-268</v>
+        <v>2.7364611512910801E-250</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="8">
-        <v>-1.92227788780297E-2</v>
+        <v>-0.55397102522600239</v>
       </c>
       <c r="B10" s="9">
-        <v>-0.32974631893424444</v>
+        <v>-0.20190779141177995</v>
       </c>
       <c r="C10" s="10">
         <f t="shared" si="2"/>
-        <v>3.6951522779362479E-4</v>
+        <v>0.30688389678994815</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="3"/>
-        <v>6.3386405747172395E-3</v>
+        <v>0.11185106620950158</v>
       </c>
       <c r="F10" s="21">
         <f>beta*F5</f>
-        <v>-20.038373624197071</v>
+        <v>-13.832187163746978</v>
       </c>
       <c r="G10" s="22">
         <f>alpha+beta*G5</f>
-        <v>214.71696040506552</v>
+        <v>273.26717161501603</v>
       </c>
       <c r="I10" s="30">
         <v>-0.3</v>
       </c>
       <c r="J10" s="24">
         <f t="shared" si="0"/>
-        <v>1.6518486460404812E-84</v>
+        <v>1.6180343863228438E-88</v>
       </c>
       <c r="K10" s="24">
         <f t="shared" si="0"/>
-        <v>1.9439206974294445E-68</v>
+        <v>2.5674896881836502E-73</v>
       </c>
       <c r="L10" s="24">
         <f t="shared" si="0"/>
-        <v>5.5581985285549937E-55</v>
+        <v>1.6320149356825144E-60</v>
       </c>
       <c r="M10" s="24">
         <f t="shared" si="0"/>
-        <v>3.8613288060058399E-44</v>
+        <v>4.1556026046262892E-50</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" si="0"/>
-        <v>6.5175854517924112E-36</v>
+        <v>4.2387553460937059E-42</v>
       </c>
       <c r="O10" s="24">
         <f t="shared" si="0"/>
-        <v>2.6729073288954729E-30</v>
+        <v>1.7319571824731148E-36</v>
       </c>
       <c r="P10" s="24">
         <f t="shared" si="0"/>
-        <v>2.6633502840778954E-27</v>
+        <v>2.8348521384780397E-33</v>
       </c>
       <c r="Q10" s="24">
         <f t="shared" si="0"/>
-        <v>6.4479237702334667E-27</v>
+        <v>1.8587378047009842E-32</v>
       </c>
       <c r="R10" s="24">
         <f t="shared" si="0"/>
-        <v>3.7927893180036434E-29</v>
+        <v>4.8820285228243958E-34</v>
       </c>
       <c r="S10" s="24">
         <f t="shared" si="0"/>
-        <v>5.4205675744903063E-34</v>
+        <v>5.1366142543177305E-38</v>
       </c>
       <c r="T10" s="24">
         <f t="shared" si="1"/>
-        <v>1.8822531189762209E-41</v>
+        <v>2.1649509074771602E-44</v>
       </c>
       <c r="U10" s="24">
         <f t="shared" si="1"/>
-        <v>1.5880292849504591E-51</v>
+        <v>3.6552207689414136E-53</v>
       </c>
       <c r="V10" s="24">
         <f t="shared" si="1"/>
-        <v>3.2552639412268142E-64</v>
+        <v>2.4721432498242107E-64</v>
       </c>
       <c r="W10" s="24">
         <f t="shared" si="1"/>
-        <v>1.6212915789409573E-79</v>
+        <v>6.6977373436315115E-78</v>
       </c>
       <c r="X10" s="24">
         <f t="shared" si="1"/>
-        <v>1.9619289035467006E-97</v>
+        <v>7.2690398888903733E-94</v>
       </c>
       <c r="Y10" s="24">
         <f t="shared" si="1"/>
-        <v>5.7683635337723145E-118</v>
+        <v>3.1602428078630469E-112</v>
       </c>
       <c r="Z10" s="24">
         <f t="shared" si="1"/>
-        <v>4.1206829333697405E-141</v>
+        <v>5.5037450908144739E-133</v>
       </c>
       <c r="AA10" s="24">
         <f t="shared" si="1"/>
-        <v>7.1520903836191253E-167</v>
+        <v>3.8396410882997298E-156</v>
       </c>
       <c r="AB10" s="24">
         <f t="shared" si="1"/>
-        <v>3.0160879971103228E-195</v>
+        <v>1.073043701506512E-181</v>
       </c>
       <c r="AC10" s="24">
         <f t="shared" si="1"/>
-        <v>3.0903113817387455E-226</v>
+        <v>1.2012645164144116E-209</v>
       </c>
       <c r="AD10" s="25">
         <f t="shared" si="1"/>
-        <v>7.6932118778941111E-260</v>
+        <v>5.3870914474382877E-240</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="8">
-        <v>-0.79092925887351306</v>
+        <v>-0.9685477463337886</v>
       </c>
       <c r="B11" s="9">
-        <v>-0.67811096348764388</v>
+        <v>-0.67730826079348083</v>
       </c>
       <c r="C11" s="10">
         <f t="shared" si="2"/>
-        <v>0.62556909254220461</v>
+        <v>0.93808473692826089</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="3"/>
-        <v>0.53633780178528601</v>
+        <v>0.65600538956478383</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="20">
         <f>MDETERM(F15:G16)</f>
-        <v>7.7604760875788943E-6</v>
+        <v>6.637807720958191E-6</v>
       </c>
       <c r="I11" s="30">
         <v>-0.2</v>
       </c>
       <c r="J11" s="24">
         <f t="shared" si="0"/>
-        <v>2.293863978188375E-78</v>
+        <v>1.302926895731105E-80</v>
       </c>
       <c r="K11" s="24">
         <f t="shared" si="0"/>
-        <v>3.2983861982097226E-62</v>
+        <v>2.3741788714724347E-65</v>
       </c>
       <c r="L11" s="24">
         <f t="shared" si="0"/>
-        <v>1.152345118758094E-48</v>
+        <v>1.7330108521189587E-52</v>
       </c>
       <c r="M11" s="24">
         <f t="shared" si="0"/>
-        <v>9.7816213575836515E-38</v>
+        <v>5.067381349789748E-42</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="0"/>
-        <v>2.0173736655825677E-29</v>
+        <v>5.9355416255289247E-34</v>
       </c>
       <c r="O11" s="24">
         <f t="shared" si="0"/>
-        <v>1.0109020241642254E-23</v>
+        <v>2.7850409242650194E-28</v>
       </c>
       <c r="P11" s="24">
         <f t="shared" si="0"/>
-        <v>1.2307759573374404E-20</v>
+        <v>5.2347659316150103E-25</v>
       </c>
       <c r="Q11" s="24">
         <f t="shared" si="0"/>
-        <v>3.6407944512327767E-20</v>
+        <v>3.9414626304539917E-24</v>
       </c>
       <c r="R11" s="24">
         <f t="shared" si="0"/>
-        <v>2.6167397776082364E-22</v>
+        <v>1.1888088218077599E-25</v>
       </c>
       <c r="S11" s="24">
         <f t="shared" si="0"/>
-        <v>4.5695362912534723E-27</v>
+        <v>1.4363526665561404E-29</v>
       </c>
       <c r="T11" s="24">
         <f t="shared" si="1"/>
-        <v>1.9387907738497416E-34</v>
+        <v>6.9519175170499684E-36</v>
       </c>
       <c r="U11" s="24">
         <f t="shared" si="1"/>
-        <v>1.9986510535881925E-44</v>
+        <v>1.3478532067755861E-44</v>
       </c>
       <c r="V11" s="24">
         <f t="shared" si="1"/>
-        <v>5.0059928878565415E-57</v>
+        <v>1.0468273041147668E-55</v>
       </c>
       <c r="W11" s="24">
         <f t="shared" si="1"/>
-        <v>3.0464264585499709E-72</v>
+        <v>3.2568814234784304E-69</v>
       </c>
       <c r="X11" s="24">
         <f t="shared" si="1"/>
-        <v>4.5044149158162091E-90</v>
+        <v>4.0590398243056815E-85</v>
       </c>
       <c r="Y11" s="24">
         <f t="shared" si="1"/>
-        <v>1.6182040961226516E-110</v>
+        <v>2.0264651410037403E-103</v>
       </c>
       <c r="Z11" s="24">
         <f t="shared" si="1"/>
-        <v>1.4124576116012526E-133</v>
+        <v>4.0527463423830619E-124</v>
       </c>
       <c r="AA11" s="24">
         <f t="shared" si="1"/>
-        <v>2.9954685862757703E-159</v>
+        <v>3.2467897589452256E-147</v>
       </c>
       <c r="AB11" s="24">
         <f t="shared" si="1"/>
-        <v>1.5434811662594956E-187</v>
+        <v>1.0419655786414591E-172</v>
       </c>
       <c r="AC11" s="24">
         <f t="shared" si="1"/>
-        <v>1.9323470058173135E-218</v>
+        <v>1.339513321371738E-200</v>
       </c>
       <c r="AD11" s="25">
         <f t="shared" si="1"/>
-        <v>5.8778178240126338E-252</v>
+        <v>6.8981901500441789E-231</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="14.25" thickBot="1">
       <c r="A12" s="8">
-        <v>0.52658354694356468</v>
+        <v>0.72814004018157341</v>
       </c>
       <c r="B12" s="9">
-        <v>-3.7377359443756912E-2</v>
+        <v>-3.4628763485968495E-2</v>
       </c>
       <c r="C12" s="10">
         <f t="shared" si="2"/>
-        <v>0.27729023191166541</v>
+        <v>0.53018791811562338</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="3"/>
-        <v>-1.968230251127806E-2</v>
+        <v>-2.5214589236111303E-2</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>22</v>
@@ -9107,110 +9095,110 @@
       </c>
       <c r="J12" s="24">
         <f t="shared" si="0"/>
-        <v>3.7210127704789496E-73</v>
+        <v>6.8244570380411522E-74</v>
       </c>
       <c r="K12" s="24">
         <f t="shared" si="0"/>
-        <v>6.5376332609356883E-57</v>
+        <v>1.4280187714070796E-58</v>
       </c>
       <c r="L12" s="24">
         <f t="shared" si="0"/>
-        <v>2.7907900593977421E-43</v>
+        <v>1.1970001047539189E-45</v>
       </c>
       <c r="M12" s="24">
         <f t="shared" si="0"/>
-        <v>2.8945496222749311E-32</v>
+        <v>4.0192860931329436E-35</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="0"/>
-        <v>7.2942736140397218E-24</v>
+        <v>5.406274741083906E-27</v>
       </c>
       <c r="O12" s="24">
         <f t="shared" si="0"/>
-        <v>4.4661192988029761E-18</v>
+        <v>2.9130085819134071E-21</v>
       </c>
       <c r="P12" s="24">
         <f t="shared" si="0"/>
-        <v>6.6439416314652193E-15</v>
+        <v>6.2875271845494225E-18</v>
       </c>
       <c r="Q12" s="24">
         <f t="shared" si="0"/>
-        <v>2.4014221716610811E-14</v>
+        <v>5.4364130628582513E-17</v>
       </c>
       <c r="R12" s="24">
         <f t="shared" si="0"/>
-        <v>2.1089119251043717E-16</v>
+        <v>1.882952995642133E-18</v>
       </c>
       <c r="S12" s="24">
         <f t="shared" si="0"/>
-        <v>4.4998246257238024E-21</v>
+        <v>2.6125280989015862E-22</v>
       </c>
       <c r="T12" s="24">
         <f t="shared" si="1"/>
-        <v>2.3328131381125099E-28</v>
+        <v>1.4520344538906588E-28</v>
       </c>
       <c r="U12" s="24">
         <f t="shared" si="1"/>
-        <v>2.9384041988293827E-38</v>
+        <v>3.2328632367673379E-37</v>
       </c>
       <c r="V12" s="24">
         <f t="shared" si="1"/>
-        <v>8.992704821066563E-51</v>
+        <v>2.8833157455652069E-48</v>
       </c>
       <c r="W12" s="24">
         <f t="shared" si="1"/>
-        <v>6.6867696024055198E-66</v>
+        <v>1.030128812718517E-61</v>
       </c>
       <c r="X12" s="24">
         <f t="shared" si="1"/>
-        <v>1.2080630461034179E-83</v>
+        <v>1.4742981663891865E-77</v>
       </c>
       <c r="Y12" s="24">
         <f t="shared" si="1"/>
-        <v>5.3028587467355749E-104</v>
+        <v>8.4522741723493584E-96</v>
       </c>
       <c r="Z12" s="24">
         <f t="shared" si="1"/>
-        <v>5.6555876439706937E-127</v>
+        <v>1.9411374424444517E-116</v>
       </c>
       <c r="AA12" s="24">
         <f t="shared" si="1"/>
-        <v>1.4655229843239339E-152</v>
+        <v>1.785802626022666E-139</v>
       </c>
       <c r="AB12" s="24">
         <f t="shared" si="1"/>
-        <v>9.2268773988207271E-181</v>
+        <v>6.5811999793014415E-165</v>
       </c>
       <c r="AC12" s="24">
         <f t="shared" si="1"/>
-        <v>1.4114454073518099E-211</v>
+        <v>9.7156347145769684E-193</v>
       </c>
       <c r="AD12" s="25">
         <f t="shared" si="1"/>
-        <v>5.2459076244271836E-245</v>
+        <v>5.7455515844836696E-223</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="8">
-        <v>-0.5724823042613294</v>
+        <v>0.99669699848249227</v>
       </c>
       <c r="B13" s="9">
-        <v>-0.59624171435886308</v>
+        <v>0.36809955682062712</v>
       </c>
       <c r="C13" s="10">
         <f t="shared" si="2"/>
-        <v>0.32773598869236131</v>
+        <v>0.99340490678400917</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="3"/>
-        <v>0.3413378305328873</v>
+        <v>0.36688372342585468</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="15">
         <f>beta*(F15*F$6+G15*F$7)</f>
-        <v>-0.30957726400432695</v>
+        <v>-0.29709567100010387</v>
       </c>
       <c r="G13">
         <v>-0.3</v>
@@ -9220,107 +9208,107 @@
       </c>
       <c r="J13" s="24">
         <f t="shared" ref="J13:S23" si="4">1/POWER(2*PI(),2/2)/SQRT($F$11)*EXP(-1/2*($F$9*(J$2-$F$13)*(J$2-$F$13)+($G$9+$F$10)*(J$2-$F$13)*($I13-$F$14)+$G$10*($I13-$F$14)*($I13-$F$14)))</f>
-        <v>7.0510005540528057E-69</v>
+        <v>2.3250479394455073E-68</v>
       </c>
       <c r="K13" s="24">
         <f t="shared" si="4"/>
-        <v>1.5136856497092867E-52</v>
+        <v>5.5868903736937849E-53</v>
       </c>
       <c r="L13" s="24">
         <f t="shared" si="4"/>
-        <v>7.8952858348756799E-39</v>
+        <v>5.3777777179482882E-40</v>
       </c>
       <c r="M13" s="24">
         <f t="shared" si="4"/>
-        <v>1.0005694537965546E-27</v>
+        <v>2.0736239724608005E-29</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="4"/>
-        <v>3.0808733248361406E-19</v>
+        <v>3.2029607919915953E-21</v>
       </c>
       <c r="O13" s="24">
         <f t="shared" si="4"/>
-        <v>2.3048765139860754E-13</v>
+        <v>1.9818359392662913E-15</v>
       </c>
       <c r="P13" s="24">
         <f t="shared" si="4"/>
-        <v>4.1895627755346056E-10</v>
+        <v>4.9122248415588511E-12</v>
       </c>
       <c r="Q13" s="24">
         <f t="shared" si="4"/>
-        <v>1.8502778963126361E-9</v>
+        <v>4.8773422778409289E-11</v>
       </c>
       <c r="R13" s="24">
         <f t="shared" si="4"/>
-        <v>1.9854202092875785E-11</v>
+        <v>1.9399149557681663E-12</v>
       </c>
       <c r="S13" s="24">
         <f t="shared" si="4"/>
-        <v>5.1762487018787041E-16</v>
+        <v>3.0908405990248244E-16</v>
       </c>
       <c r="T13" s="24">
         <f t="shared" ref="T13:AD23" si="5">1/POWER(2*PI(),2/2)/SQRT($F$11)*EXP(-1/2*($F$9*(T$2-$F$13)*(T$2-$F$13)+($G$9+$F$10)*(T$2-$F$13)*($I13-$F$14)+$G$10*($I13-$F$14)*($I13-$F$14)))</f>
-        <v>3.2788764307238524E-23</v>
+        <v>1.9727178987935737E-22</v>
       </c>
       <c r="U13" s="24">
         <f t="shared" si="5"/>
-        <v>5.0464059563128095E-33</v>
+        <v>5.0436834504729816E-31</v>
       </c>
       <c r="V13" s="24">
         <f t="shared" si="5"/>
-        <v>1.8870635999324532E-45</v>
+        <v>5.165651680408388E-42</v>
       </c>
       <c r="W13" s="24">
         <f t="shared" si="5"/>
-        <v>1.7145024485074996E-60</v>
+        <v>2.11932165092831E-55</v>
       </c>
       <c r="X13" s="24">
         <f t="shared" si="5"/>
-        <v>3.7847474130173E-78</v>
+        <v>3.483077127012379E-71</v>
       </c>
       <c r="Y13" s="24">
         <f t="shared" si="5"/>
-        <v>2.0299386418636793E-98</v>
+        <v>2.293104082954109E-89</v>
       </c>
       <c r="Z13" s="24">
         <f t="shared" si="5"/>
-        <v>2.6453073576474457E-121</v>
+        <v>6.0475421475977787E-110</v>
       </c>
       <c r="AA13" s="24">
         <f t="shared" si="5"/>
-        <v>8.3756127207798633E-147</v>
+        <v>6.388935444089824E-133</v>
       </c>
       <c r="AB13" s="24">
         <f t="shared" si="5"/>
-        <v>6.4432392037359003E-175</v>
+        <v>2.7037874998750848E-158</v>
       </c>
       <c r="AC13" s="24">
         <f t="shared" si="5"/>
-        <v>1.2043123516030725E-205</v>
+        <v>4.5836460269403484E-186</v>
       </c>
       <c r="AD13" s="25">
         <f t="shared" si="5"/>
-        <v>5.4691677639683888E-239</v>
+        <v>3.1127486077411275E-216</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="14.25" thickBot="1">
       <c r="A14" s="8">
-        <v>-0.89412247177136051</v>
+        <v>-0.87683285144487666</v>
       </c>
       <c r="B14" s="9">
-        <v>-0.70650224014981111</v>
+        <v>-0.97260401173988509</v>
       </c>
       <c r="C14" s="10">
         <f t="shared" si="2"/>
-        <v>0.79945499452652735</v>
+        <v>0.76883584937295313</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="3"/>
-        <v>0.63169952927475248</v>
+        <v>0.85281114894060972</v>
       </c>
       <c r="F14" s="16">
         <f>beta*(F16*F$6+G16*F$7)</f>
-        <v>0.47315424328807132</v>
+        <v>0.45174372485095188</v>
       </c>
       <c r="G14">
         <v>0.5</v>
@@ -9330,1110 +9318,1102 @@
       </c>
       <c r="J14" s="24">
         <f t="shared" si="4"/>
-        <v>1.5607610786466724E-65</v>
+        <v>5.1524225528447361E-64</v>
       </c>
       <c r="K14" s="24">
         <f t="shared" si="4"/>
-        <v>4.09399136317595E-49</v>
+        <v>1.4217463955657392E-48</v>
       </c>
       <c r="L14" s="24">
         <f t="shared" si="4"/>
-        <v>2.6091835804712603E-35</v>
+        <v>1.5715465847072441E-35</v>
       </c>
       <c r="M14" s="24">
         <f t="shared" si="4"/>
-        <v>4.0402623878145238E-24</v>
+        <v>6.9586796267917922E-25</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="4"/>
-        <v>1.5200634732294631E-15</v>
+        <v>1.2343004444147029E-16</v>
       </c>
       <c r="O14" s="24">
         <f t="shared" si="4"/>
-        <v>1.3895081380733209E-9</v>
+        <v>8.7701977980083051E-11</v>
       </c>
       <c r="P14" s="24">
         <f t="shared" si="4"/>
-        <v>3.0860835897296741E-6</v>
+        <v>2.4962745621064436E-7</v>
       </c>
       <c r="Q14" s="24">
         <f t="shared" si="4"/>
-        <v>1.6653345590765784E-5</v>
+        <v>2.8462285710192894E-6</v>
       </c>
       <c r="R14" s="24">
         <f t="shared" si="4"/>
-        <v>2.1834463388930035E-7</v>
+        <v>1.2999949238480747E-7</v>
       </c>
       <c r="S14" s="24">
         <f t="shared" si="4"/>
-        <v>6.955538684215692E-12</v>
+        <v>2.3785265252433554E-11</v>
       </c>
       <c r="T14" s="24">
         <f t="shared" si="5"/>
-        <v>5.3835188323396966E-19</v>
+        <v>1.7432866382271099E-17</v>
       </c>
       <c r="U14" s="24">
         <f t="shared" si="5"/>
-        <v>1.0123925062203151E-28</v>
+        <v>5.1182802719953186E-26</v>
       </c>
       <c r="V14" s="24">
         <f t="shared" si="5"/>
-        <v>4.6257145155581589E-41</v>
+        <v>6.0196852770921129E-37</v>
       </c>
       <c r="W14" s="24">
         <f t="shared" si="5"/>
-        <v>5.135183285316787E-56</v>
+        <v>2.8360766747555711E-50</v>
       </c>
       <c r="X14" s="24">
         <f t="shared" si="5"/>
-        <v>1.3850973268702239E-73</v>
+        <v>5.3524991873464185E-66</v>
       </c>
       <c r="Y14" s="24">
         <f t="shared" si="5"/>
-        <v>9.0771989055972019E-94</v>
+        <v>4.0465947329399056E-84</v>
       </c>
       <c r="Z14" s="24">
         <f t="shared" si="5"/>
-        <v>1.4453420301331798E-116</v>
+        <v>1.2255111690968943E-104</v>
       </c>
       <c r="AA14" s="24">
         <f t="shared" si="5"/>
-        <v>5.5916068840100062E-142</v>
+        <v>1.4867546153643259E-127</v>
       </c>
       <c r="AB14" s="24">
         <f t="shared" si="5"/>
-        <v>5.2559333422150337E-170</v>
+        <v>7.2252982179616261E-153</v>
       </c>
       <c r="AC14" s="24">
         <f t="shared" si="5"/>
-        <v>1.2003566020099051E-200</v>
+        <v>1.4065873858781302E-180</v>
       </c>
       <c r="AD14" s="25">
         <f t="shared" si="5"/>
-        <v>6.6606703662558601E-234</v>
+        <v>1.0969128388955674E-210</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="8">
-        <v>-6.8107009131336493E-2</v>
+        <v>0.67238254724709989</v>
       </c>
       <c r="B15" s="9">
-        <v>-0.33107151128583484</v>
+        <v>-0.10306340611760198</v>
       </c>
       <c r="C15" s="10">
         <f t="shared" si="2"/>
-        <v>4.6385646928159526E-3</v>
+        <v>0.4520982898424985</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="3"/>
-        <v>2.2548290442269726E-2</v>
+        <v>-6.9298035533315552E-2</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="11">
         <f t="array" ref="F15:G16">MINVERSE(F9:G10)</f>
-        <v>1.6663058368211355E-3</v>
+        <v>1.8138949416305601E-3</v>
       </c>
       <c r="G15" s="12">
-        <v>1.5550731934455301E-4</v>
+        <v>9.1815398753258455E-5</v>
       </c>
       <c r="I15" s="30">
         <v>0.2</v>
       </c>
       <c r="J15" s="24">
         <f t="shared" si="4"/>
-        <v>4.0356936653754162E-63</v>
+        <v>7.4268864834855932E-61</v>
       </c>
       <c r="K15" s="24">
         <f t="shared" si="4"/>
-        <v>1.2934636842714091E-46</v>
+        <v>2.3533681685176818E-45</v>
       </c>
       <c r="L15" s="24">
         <f t="shared" si="4"/>
-        <v>1.0072505320554268E-32</v>
+        <v>2.9872214820371897E-32</v>
       </c>
       <c r="M15" s="24">
         <f t="shared" si="4"/>
-        <v>1.9057590466731992E-21</v>
+        <v>1.5189358501022388E-21</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="4"/>
-        <v>8.7608388850678671E-13</v>
+        <v>3.0938973545555406E-13</v>
       </c>
       <c r="O15" s="24">
         <f t="shared" si="4"/>
-        <v>9.7852204900612857E-7</v>
+        <v>2.5244503272284864E-7</v>
       </c>
       <c r="P15" s="24">
         <f t="shared" si="4"/>
-        <v>2.6554783039868884E-3</v>
+        <v>8.2512969719401353E-4</v>
       </c>
       <c r="Q15" s="24">
         <f t="shared" si="4"/>
-        <v>1.7509031248698327E-2</v>
+        <v>1.080368881294503E-2</v>
       </c>
       <c r="R15" s="24">
         <f t="shared" si="4"/>
-        <v>2.804973076952182E-4</v>
+        <v>5.6665193297158686E-4</v>
       </c>
       <c r="S15" s="24">
         <f t="shared" si="4"/>
-        <v>1.0917985051522896E-8</v>
+        <v>1.1905705693356738E-7</v>
       </c>
       <c r="T15" s="24">
         <f t="shared" si="5"/>
-        <v>1.0325319820241519E-15</v>
+        <v>1.0020476426219418E-13</v>
       </c>
       <c r="U15" s="24">
         <f t="shared" si="5"/>
-        <v>2.3725301965970563E-25</v>
+        <v>3.3784388187774347E-22</v>
       </c>
       <c r="V15" s="24">
         <f t="shared" si="5"/>
-        <v>1.3245464826983237E-37</v>
+        <v>4.5628711641264892E-33</v>
       </c>
       <c r="W15" s="24">
         <f t="shared" si="5"/>
-        <v>1.7966764600223947E-52</v>
+        <v>2.4686232446610395E-46</v>
       </c>
       <c r="X15" s="24">
         <f t="shared" si="5"/>
-        <v>5.9213368905854928E-70</v>
+        <v>5.3501490544762897E-62</v>
       </c>
       <c r="Y15" s="24">
         <f t="shared" si="5"/>
-        <v>4.741512311738506E-90</v>
+        <v>4.644846957422719E-80</v>
       </c>
       <c r="Z15" s="24">
         <f t="shared" si="5"/>
-        <v>9.2248903652322427E-113</v>
+        <v>1.6153677062449402E-100</v>
       </c>
       <c r="AA15" s="24">
         <f t="shared" si="5"/>
-        <v>4.3606653926714861E-138</v>
+        <v>2.2504317357351184E-123</v>
       </c>
       <c r="AB15" s="24">
         <f t="shared" si="5"/>
-        <v>5.0083137975171541E-166</v>
+        <v>1.255899104566048E-148</v>
       </c>
       <c r="AC15" s="24">
         <f t="shared" si="5"/>
-        <v>1.3975827112394525E-196</v>
+        <v>2.8076186449668534E-176</v>
       </c>
       <c r="AD15" s="25">
         <f t="shared" si="5"/>
-        <v>9.475687424861106E-230</v>
+        <v>2.5142933386845447E-206</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="14.25" thickBot="1">
       <c r="A16" s="8">
-        <v>0.52958047529711738</v>
+        <v>0.33887087643372471</v>
       </c>
       <c r="B16" s="9">
-        <v>-0.15822202665347207</v>
+        <v>-0.22107570718823183</v>
       </c>
       <c r="C16" s="10">
         <f t="shared" si="2"/>
-        <v>0.28045547981592073</v>
+        <v>0.11483347089496072</v>
       </c>
       <c r="D16" s="10">
         <f t="shared" si="3"/>
-        <v>-8.3791296077618913E-2</v>
+        <v>-7.491611865308162E-2</v>
       </c>
       <c r="F16" s="13">
-        <v>1.5550731934455301E-4</v>
+        <v>9.1815398753258455E-5</v>
       </c>
       <c r="G16" s="14">
-        <v>4.6718066047224949E-3</v>
+        <v>3.664069861968921E-3</v>
       </c>
       <c r="I16" s="30">
         <v>0.3</v>
       </c>
       <c r="J16" s="24">
         <f t="shared" si="4"/>
-        <v>1.218978509647202E-61</v>
+        <v>6.9633440275992732E-59</v>
       </c>
       <c r="K16" s="24">
         <f t="shared" si="4"/>
-        <v>4.7737277456174402E-45</v>
+        <v>2.5338060382898089E-43</v>
       </c>
       <c r="L16" s="24">
         <f t="shared" si="4"/>
-        <v>4.54220220026066E-31</v>
+        <v>3.6933744558513687E-30</v>
       </c>
       <c r="M16" s="24">
         <f t="shared" si="4"/>
-        <v>1.0500802705940731E-19</v>
+        <v>2.1565909356837758E-19</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="4"/>
-        <v>5.8982849974442591E-11</v>
+        <v>5.0443669281868845E-11</v>
       </c>
       <c r="O16" s="24">
         <f t="shared" si="4"/>
-        <v>8.0496357106437841E-5</v>
+        <v>4.7265039351648393E-5</v>
       </c>
       <c r="P16" s="24">
         <f t="shared" si="4"/>
-        <v>0.26691557659148912</v>
+        <v>0.17740580960491034</v>
       </c>
       <c r="Q16" s="24">
         <f t="shared" si="4"/>
-        <v>2.1503979147756538</v>
+        <v>2.6674120680315268</v>
       </c>
       <c r="R16" s="24">
         <f t="shared" si="4"/>
-        <v>4.2093104783682472E-2</v>
+        <v>0.16065966071665203</v>
       </c>
       <c r="S16" s="24">
         <f t="shared" si="4"/>
-        <v>2.0019365541835746E-6</v>
+        <v>3.8763058725822302E-5</v>
       </c>
       <c r="T16" s="24">
         <f t="shared" si="5"/>
-        <v>2.3133262061006569E-13</v>
+        <v>3.7464823654154815E-11</v>
       </c>
       <c r="U16" s="24">
         <f t="shared" si="5"/>
-        <v>6.4948730207750208E-23</v>
+        <v>1.4505202835322949E-19</v>
       </c>
       <c r="V16" s="24">
         <f t="shared" si="5"/>
-        <v>4.430489082499597E-35</v>
+        <v>2.2496677344304074E-30</v>
       </c>
       <c r="W16" s="24">
         <f t="shared" si="5"/>
-        <v>7.3431076605646496E-50</v>
+        <v>1.3976789125377519E-43</v>
       </c>
       <c r="X16" s="24">
         <f t="shared" si="5"/>
-        <v>2.9570273370801486E-67</v>
+        <v>3.4784911755673335E-59</v>
       </c>
       <c r="Y16" s="24">
         <f t="shared" si="5"/>
-        <v>2.893196974763882E-87</v>
+        <v>3.4679183121908001E-77</v>
       </c>
       <c r="Z16" s="24">
         <f t="shared" si="5"/>
-        <v>6.8777737311826724E-110</v>
+        <v>1.3849728883901398E-97</v>
       </c>
       <c r="AA16" s="24">
         <f t="shared" si="5"/>
-        <v>3.9725098684806715E-135</v>
+        <v>2.2156856488915312E-120</v>
       </c>
       <c r="AB16" s="24">
         <f t="shared" si="5"/>
-        <v>5.5748001670881998E-163</v>
+        <v>1.4199383127843341E-145</v>
       </c>
       <c r="AC16" s="24">
         <f t="shared" si="5"/>
-        <v>1.9008193438708436E-193</v>
+        <v>3.6452328056708324E-173</v>
       </c>
       <c r="AD16" s="25">
         <f t="shared" si="5"/>
-        <v>1.5747064286800036E-226</v>
+        <v>3.7486554296698016E-203</v>
       </c>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="8">
-        <v>0.9413393073183336</v>
+        <v>0.92167581438565449</v>
       </c>
       <c r="B17" s="9">
-        <v>0.12979249187972794</v>
+        <v>0.20756007974634783</v>
       </c>
       <c r="C17" s="10">
         <f t="shared" si="2"/>
-        <v>0.88611969150256009</v>
+        <v>0.84948630682345938</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="3"/>
-        <v>0.12217877440118353</v>
+        <v>0.19130310553416652</v>
       </c>
       <c r="I17" s="30">
         <v>0.4</v>
       </c>
       <c r="J17" s="24">
         <f t="shared" si="4"/>
-        <v>4.301005465612616E-61</v>
+        <v>4.2466324237753468E-58</v>
       </c>
       <c r="K17" s="24">
         <f t="shared" si="4"/>
-        <v>2.0580557875520291E-44</v>
+        <v>1.774486139584729E-42</v>
       </c>
       <c r="L17" s="24">
         <f t="shared" si="4"/>
-        <v>2.3927179653771475E-30</v>
+        <v>2.9702637256627208E-29</v>
       </c>
       <c r="M17" s="24">
         <f t="shared" si="4"/>
-        <v>6.7588544922451E-19</v>
+        <v>1.9916447294423869E-18</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="4"/>
-        <v>4.6387599852276867E-10</v>
+        <v>5.3496231691590752E-10</v>
       </c>
       <c r="O17" s="24">
         <f t="shared" si="4"/>
-        <v>7.7353136218478232E-4</v>
+        <v>5.7561084894893096E-4</v>
       </c>
       <c r="P17" s="24">
         <f t="shared" si="4"/>
-        <v>3.1340157143020129</v>
+        <v>2.4810139739167156</v>
       </c>
       <c r="Q17" s="24">
         <f t="shared" si="4"/>
-        <v>30.85116950633752</v>
+        <v>42.837479523306463</v>
       </c>
       <c r="R17" s="24">
         <f t="shared" si="4"/>
-        <v>0.7378860722790439</v>
+        <v>2.9628732240195625</v>
       </c>
       <c r="S17" s="24">
         <f t="shared" si="4"/>
-        <v>4.2879944355386432E-5</v>
+        <v>8.2091215930439035E-4</v>
       </c>
       <c r="T17" s="24">
         <f t="shared" si="5"/>
-        <v>6.054333387603793E-12</v>
+        <v>9.1111829577980613E-10</v>
       </c>
       <c r="U17" s="24">
         <f t="shared" si="5"/>
-        <v>2.0769482233925233E-21</v>
+        <v>4.0508606778364034E-18</v>
       </c>
       <c r="V17" s="24">
         <f t="shared" si="5"/>
-        <v>1.7311401418633811E-33</v>
+        <v>7.2146340242293413E-29</v>
       </c>
       <c r="W17" s="24">
         <f t="shared" si="5"/>
-        <v>3.5057908467203806E-48</v>
+        <v>5.147255951357567E-42</v>
       </c>
       <c r="X17" s="24">
         <f t="shared" si="5"/>
-        <v>1.7249916516093596E-65</v>
+        <v>1.471064391656603E-57</v>
       </c>
       <c r="Y17" s="24">
         <f t="shared" si="5"/>
-        <v>2.062221029646224E-85</v>
+        <v>1.6841550107947014E-75</v>
       </c>
       <c r="Z17" s="24">
         <f t="shared" si="5"/>
-        <v>5.9900527091182796E-108</v>
+        <v>7.7237267388551422E-96</v>
       </c>
       <c r="AA17" s="24">
         <f t="shared" si="5"/>
-        <v>4.2273995375622689E-133</v>
+        <v>1.4189470801856038E-118</v>
       </c>
       <c r="AB17" s="24">
         <f t="shared" si="5"/>
-        <v>7.2487507402573279E-161</v>
+        <v>1.0442391151349028E-143</v>
       </c>
       <c r="AC17" s="24">
         <f t="shared" si="5"/>
-        <v>3.0199534977474548E-191</v>
+        <v>3.0784221497536958E-171</v>
       </c>
       <c r="AD17" s="25">
         <f t="shared" si="5"/>
-        <v>3.0569234539398551E-224</v>
+        <v>3.6353887027564146E-201</v>
       </c>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="8">
-        <v>0.58183040090739979</v>
+        <v>-0.58639653733706432</v>
       </c>
       <c r="B18" s="9">
-        <v>7.4200098251752215E-3</v>
+        <v>-0.53644309007957758</v>
       </c>
       <c r="C18" s="10">
         <f t="shared" si="2"/>
-        <v>0.33852661542006557</v>
+        <v>0.34386089900089906</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" si="3"/>
-        <v>4.3171872913185449E-3</v>
+        <v>0.31456837050105918</v>
       </c>
       <c r="I18" s="30">
         <v>0.5</v>
       </c>
       <c r="J18" s="24">
         <f t="shared" si="4"/>
-        <v>1.772719528556505E-61</v>
+        <v>1.6845629445731123E-58</v>
       </c>
       <c r="K18" s="24">
         <f t="shared" si="4"/>
-        <v>1.0364604351910705E-44</v>
+        <v>8.0832797427983858E-43</v>
       </c>
       <c r="L18" s="24">
         <f t="shared" si="4"/>
-        <v>1.4723553772967213E-30</v>
+        <v>1.5537546254274087E-29</v>
       </c>
       <c r="M18" s="24">
         <f t="shared" si="4"/>
-        <v>5.0818259210597978E-19</v>
+        <v>1.1963870955049462E-18</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="4"/>
-        <v>4.2616142933598104E-10</v>
+        <v>3.6902472507164458E-10</v>
       </c>
       <c r="O18" s="24">
         <f t="shared" si="4"/>
-        <v>8.6831182530420505E-4</v>
+        <v>4.5596727117917454E-4</v>
       </c>
       <c r="P18" s="24">
         <f t="shared" si="4"/>
-        <v>4.2985750118604038</v>
+        <v>2.256868919891573</v>
       </c>
       <c r="Q18" s="24">
         <f t="shared" si="4"/>
-        <v>51.703569022430564</v>
+        <v>44.747982628185525</v>
       </c>
       <c r="R18" s="24">
         <f t="shared" si="4"/>
-        <v>1.5109975316600273</v>
+        <v>3.5541442128758187</v>
       </c>
       <c r="S18" s="24">
         <f t="shared" si="4"/>
-        <v>1.0728875504472707E-4</v>
+        <v>1.1308137759882396E-3</v>
       </c>
       <c r="T18" s="24">
         <f t="shared" si="5"/>
-        <v>1.8509380176644497E-11</v>
+        <v>1.441257549870164E-9</v>
       </c>
       <c r="U18" s="24">
         <f t="shared" si="5"/>
-        <v>7.7584821386065272E-21</v>
+        <v>7.3584536717134657E-18</v>
       </c>
       <c r="V18" s="24">
         <f t="shared" si="5"/>
-        <v>7.9014877739440319E-33</v>
+        <v>1.5049635602035067E-28</v>
       </c>
       <c r="W18" s="24">
         <f t="shared" si="5"/>
-        <v>1.9551865418972356E-47</v>
+        <v>1.2329908929991013E-41</v>
       </c>
       <c r="X18" s="24">
         <f t="shared" si="5"/>
-        <v>1.1754786482916113E-64</v>
+        <v>4.0465807682092834E-57</v>
       </c>
       <c r="Y18" s="24">
         <f t="shared" si="5"/>
-        <v>1.7170720127004862E-84</v>
+        <v>5.3199924672782296E-75</v>
       </c>
       <c r="Z18" s="24">
         <f t="shared" si="5"/>
-        <v>6.0940988308482621E-107</v>
+        <v>2.8017429091193157E-95</v>
       </c>
       <c r="AA18" s="24">
         <f t="shared" si="5"/>
-        <v>5.2550602013398701E-132</v>
+        <v>5.9107148120952952E-118</v>
       </c>
       <c r="AB18" s="24">
         <f t="shared" si="5"/>
-        <v>1.1010146991468525E-159</v>
+        <v>4.9951230294183446E-143</v>
       </c>
       <c r="AC18" s="24">
         <f t="shared" si="5"/>
-        <v>5.6047437000157286E-190</v>
+        <v>1.6910125590986497E-170</v>
       </c>
       <c r="AD18" s="25">
         <f t="shared" si="5"/>
-        <v>6.9321127337002756E-223</v>
+        <v>2.2932000193680183E-200</v>
       </c>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="8">
-        <v>0.62363716663285551</v>
+        <v>0.81059876482218307</v>
       </c>
       <c r="B19" s="9">
-        <v>-5.019525356813416E-2</v>
+        <v>6.7644410455975773E-2</v>
       </c>
       <c r="C19" s="10">
         <f t="shared" si="2"/>
-        <v>0.38892331560585597</v>
+        <v>0.65707035753124887</v>
       </c>
       <c r="D19" s="10">
         <f t="shared" si="3"/>
-        <v>-3.1303625713648919E-2</v>
+        <v>5.4832475562738729E-2</v>
       </c>
       <c r="I19" s="30">
         <v>0.6</v>
       </c>
       <c r="J19" s="24">
         <f t="shared" si="4"/>
-        <v>8.5350516336923524E-63</v>
+        <v>4.3465588889591172E-60</v>
       </c>
       <c r="K19" s="24">
         <f t="shared" si="4"/>
-        <v>6.0973960224532768E-46</v>
+        <v>2.3950708180139908E-44</v>
       </c>
       <c r="L19" s="24">
         <f t="shared" si="4"/>
-        <v>1.058351360491709E-31</v>
+        <v>5.2867114897176122E-31</v>
       </c>
       <c r="M19" s="24">
         <f t="shared" si="4"/>
-        <v>4.463366614752231E-20</v>
+        <v>4.6746308566450878E-20</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="4"/>
-        <v>4.5734345448946268E-11</v>
+        <v>1.6557832785063944E-11</v>
       </c>
       <c r="O19" s="24">
         <f t="shared" si="4"/>
-        <v>1.1385958432098077E-4</v>
+        <v>2.3493846301818105E-5</v>
       </c>
       <c r="P19" s="24">
         <f t="shared" si="4"/>
-        <v>0.68872197311475802</v>
+        <v>0.13353626164681845</v>
       </c>
       <c r="Q19" s="24">
         <f t="shared" si="4"/>
-        <v>10.121980656634147</v>
+        <v>3.0404562919724181</v>
       </c>
       <c r="R19" s="24">
         <f t="shared" si="4"/>
-        <v>0.3614383957642901</v>
+        <v>0.27731462573098786</v>
       </c>
       <c r="S19" s="24">
         <f t="shared" si="4"/>
-        <v>3.1358139505797099E-5</v>
+        <v>1.0132141482513959E-4</v>
       </c>
       <c r="T19" s="24">
         <f t="shared" si="5"/>
-        <v>6.6101833926495975E-12</v>
+        <v>1.4829420353852153E-10</v>
       </c>
       <c r="U19" s="24">
         <f t="shared" si="5"/>
-        <v>3.3855088114945438E-21</v>
+        <v>8.6944390243549387E-19</v>
       </c>
       <c r="V19" s="24">
         <f t="shared" si="5"/>
-        <v>4.2129044295622199E-33</v>
+        <v>2.0419890840799353E-29</v>
       </c>
       <c r="W19" s="24">
         <f t="shared" si="5"/>
-        <v>1.2737567100727953E-47</v>
+        <v>1.921143147811604E-42</v>
       </c>
       <c r="X19" s="24">
         <f t="shared" si="5"/>
-        <v>9.3570420561608575E-65</v>
+        <v>7.2403655949010694E-58</v>
       </c>
       <c r="Y19" s="24">
         <f t="shared" si="5"/>
-        <v>1.6700823912574652E-84</v>
+        <v>1.093089508080455E-75</v>
       </c>
       <c r="Z19" s="24">
         <f t="shared" si="5"/>
-        <v>7.2424320873887456E-107</v>
+        <v>6.6106690476034466E-96</v>
       </c>
       <c r="AA19" s="24">
         <f t="shared" si="5"/>
-        <v>7.6309425670767002E-132</v>
+        <v>1.601509668978191E-118</v>
       </c>
       <c r="AB19" s="24">
         <f t="shared" si="5"/>
-        <v>1.9535258270900524E-159</v>
+        <v>1.5542045444231463E-143</v>
       </c>
       <c r="AC19" s="24">
         <f t="shared" si="5"/>
-        <v>1.2150869277202359E-189</v>
+        <v>6.04200727469792E-171</v>
       </c>
       <c r="AD19" s="25">
         <f t="shared" si="5"/>
-        <v>1.8362962988417401E-222</v>
+        <v>9.4091149239453071E-201</v>
       </c>
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="8">
-        <v>-0.40719050806303336</v>
+        <v>-9.3108853341397513E-2</v>
       </c>
       <c r="B20" s="9">
-        <v>-0.47519508165434982</v>
+        <v>-0.27360695686448377</v>
       </c>
       <c r="C20" s="10">
         <f t="shared" si="2"/>
-        <v>0.16580410985663124</v>
+        <v>8.6692585705498704E-3</v>
       </c>
       <c r="D20" s="10">
         <f t="shared" si="3"/>
-        <v>0.19349492672788932</v>
+        <v>2.5475230019881296E-2</v>
       </c>
       <c r="I20" s="30">
         <v>0.7</v>
       </c>
       <c r="J20" s="24">
         <f t="shared" si="4"/>
-        <v>4.8002998438610904E-65</v>
+        <v>7.2949050843596686E-63</v>
       </c>
       <c r="K20" s="24">
         <f t="shared" si="4"/>
-        <v>4.1901750549276944E-48</v>
+        <v>4.6159900329742808E-47</v>
       </c>
       <c r="L20" s="24">
         <f t="shared" si="4"/>
-        <v>8.8867545920172613E-34</v>
+        <v>1.170050318430398E-33</v>
       </c>
       <c r="M20" s="24">
         <f t="shared" si="4"/>
-        <v>4.5793245721708161E-22</v>
+        <v>1.1880608250820148E-22</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="4"/>
-        <v>5.7333292716878761E-13</v>
+        <v>4.8324489216097889E-14</v>
       </c>
       <c r="O20" s="24">
         <f t="shared" si="4"/>
-        <v>1.7440525301140961E-6</v>
+        <v>7.8739078655374041E-8</v>
       </c>
       <c r="P20" s="24">
         <f t="shared" si="4"/>
-        <v>1.2890194116141005E-2</v>
+        <v>5.139345858138722E-4</v>
       </c>
       <c r="Q20" s="24">
         <f t="shared" si="4"/>
-        <v>0.23147632165326984</v>
+        <v>1.3437541583357025E-2</v>
       </c>
       <c r="R20" s="24">
         <f t="shared" si="4"/>
-        <v>1.0099524017586401E-2</v>
+        <v>1.4074282284290065E-3</v>
       </c>
       <c r="S20" s="24">
         <f t="shared" si="4"/>
-        <v>1.0706375203861415E-6</v>
+        <v>5.9050985957881962E-7</v>
       </c>
       <c r="T20" s="24">
         <f t="shared" si="5"/>
-        <v>2.7575997489908681E-13</v>
+        <v>9.9248170337099364E-13</v>
       </c>
       <c r="U20" s="24">
         <f t="shared" si="5"/>
-        <v>1.7257076390286463E-22</v>
+        <v>6.6820900644005865E-21</v>
       </c>
       <c r="V20" s="24">
         <f t="shared" si="5"/>
-        <v>2.6239190416114319E-34</v>
+        <v>1.8021735054442268E-31</v>
       </c>
       <c r="W20" s="24">
         <f t="shared" si="5"/>
-        <v>9.693505471209833E-49</v>
+        <v>1.9470420732782516E-44</v>
       </c>
       <c r="X20" s="24">
         <f t="shared" si="5"/>
-        <v>8.7007864041875335E-66</v>
+        <v>8.4265253507455651E-60</v>
       </c>
       <c r="Y20" s="24">
         <f t="shared" si="5"/>
-        <v>1.8975069433558952E-85</v>
+        <v>1.4608855286369689E-77</v>
       </c>
       <c r="Z20" s="24">
         <f t="shared" si="5"/>
-        <v>1.0054383796973391E-107</v>
+        <v>1.014561323261289E-97</v>
       </c>
       <c r="AA20" s="24">
         <f t="shared" si="5"/>
-        <v>1.294418655521896E-132</v>
+        <v>2.8225060235013407E-120</v>
       </c>
       <c r="AB20" s="24">
         <f t="shared" si="5"/>
-        <v>4.0489394931380888E-160</v>
+        <v>3.1454726437113995E-145</v>
       </c>
       <c r="AC20" s="24">
         <f t="shared" si="5"/>
-        <v>3.0771950772431892E-190</v>
+        <v>1.4042078850347083E-172</v>
       </c>
       <c r="AD20" s="25">
         <f t="shared" si="5"/>
-        <v>5.6821931229060973E-223</v>
+        <v>2.5111425223551834E-202</v>
       </c>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="8">
-        <v>0.76702734208103074</v>
+        <v>0.31132912460798323</v>
       </c>
       <c r="B21" s="9">
-        <v>1.0287248361482773E-2</v>
+        <v>-0.22085105210691086</v>
       </c>
       <c r="C21" s="10">
         <f t="shared" si="2"/>
-        <v>0.58833094349989057</v>
+        <v>9.6925823829173155E-2</v>
       </c>
       <c r="D21" s="10">
         <f t="shared" si="3"/>
-        <v>7.8906007680355703E-3</v>
+        <v>-6.8757364721196645E-2</v>
       </c>
       <c r="I21" s="30">
         <v>0.8</v>
       </c>
       <c r="J21" s="24">
         <f t="shared" si="4"/>
-        <v>3.1537456761112507E-68</v>
+        <v>7.9636006972460643E-67</v>
       </c>
       <c r="K21" s="24">
         <f t="shared" si="4"/>
-        <v>3.3636904351439807E-51</v>
+        <v>5.7866487088403971E-51</v>
       </c>
       <c r="L21" s="24">
         <f t="shared" si="4"/>
-        <v>8.7167098775348849E-37</v>
+        <v>1.6843766825091239E-37</v>
       </c>
       <c r="M21" s="24">
         <f t="shared" si="4"/>
-        <v>5.4882815346811009E-25</v>
+        <v>1.9640194433341045E-26</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="4"/>
-        <v>8.3959025754082075E-16</v>
+        <v>9.1737479780483264E-18</v>
       </c>
       <c r="O21" s="24">
         <f t="shared" si="4"/>
-        <v>3.120653993724148E-9</v>
+        <v>1.7164939892949472E-11</v>
       </c>
       <c r="P21" s="24">
         <f t="shared" si="4"/>
-        <v>2.818195163862676E-5</v>
+        <v>1.286566470215801E-7</v>
       </c>
       <c r="Q21" s="24">
         <f t="shared" si="4"/>
-        <v>6.1836333550026659E-4</v>
+        <v>3.862928152284135E-6</v>
       </c>
       <c r="R21" s="24">
         <f t="shared" si="4"/>
-        <v>3.2965799728830962E-5</v>
+        <v>4.6461742370462708E-7</v>
       </c>
       <c r="S21" s="24">
         <f t="shared" si="4"/>
-        <v>4.2700279683228366E-9</v>
+        <v>2.2385603847917186E-10</v>
       </c>
       <c r="T21" s="24">
         <f t="shared" si="5"/>
-        <v>1.3438321973300306E-15</v>
+        <v>4.3205257253517937E-16</v>
       </c>
       <c r="U21" s="24">
         <f t="shared" si="5"/>
-        <v>1.0275585657520365E-24</v>
+        <v>3.3404027821059815E-24</v>
       </c>
       <c r="V21" s="24">
         <f t="shared" si="5"/>
-        <v>1.9090413899260343E-36</v>
+        <v>1.0345596546883561E-34</v>
       </c>
       <c r="W21" s="24">
         <f t="shared" si="5"/>
-        <v>8.6173022088213348E-51</v>
+        <v>1.2835319955477032E-47</v>
       </c>
       <c r="X21" s="24">
         <f t="shared" si="5"/>
-        <v>9.4509294745334169E-68</v>
+        <v>6.3789958580958559E-63</v>
       </c>
       <c r="Y21" s="24">
         <f t="shared" si="5"/>
-        <v>2.5184013281932346E-87</v>
+        <v>1.2699668979579599E-80</v>
       </c>
       <c r="Z21" s="24">
         <f t="shared" si="5"/>
-        <v>1.6305066561149096E-109</v>
+        <v>1.0128075774730809E-100</v>
       </c>
       <c r="AA21" s="24">
         <f t="shared" si="5"/>
-        <v>2.5648822453700433E-134</v>
+        <v>3.2356083137678485E-123</v>
       </c>
       <c r="AB21" s="24">
         <f t="shared" si="5"/>
-        <v>9.8030113506250907E-162</v>
+        <v>4.1407537444896314E-148</v>
       </c>
       <c r="AC21" s="24">
         <f t="shared" si="5"/>
-        <v>9.103298814857776E-192</v>
+        <v>2.1227425423023111E-175</v>
       </c>
       <c r="AD21" s="25">
         <f t="shared" si="5"/>
-        <v>2.0539284506711036E-224</v>
+        <v>4.3592292018404836E-205</v>
       </c>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="8">
-        <v>-0.37665271132266209</v>
+        <v>0.93713218699022871</v>
       </c>
       <c r="B22" s="9">
-        <v>-0.53890257123321139</v>
+        <v>-1.4421309340076766E-2</v>
       </c>
       <c r="C22" s="10">
         <f t="shared" si="2"/>
-        <v>0.14186726494671262</v>
+        <v>0.87821673589308902</v>
       </c>
       <c r="D22" s="10">
         <f t="shared" si="3"/>
-        <v>0.20297911459374313</v>
+        <v>-1.3514673161128751E-2</v>
       </c>
       <c r="I22" s="30">
         <v>0.9</v>
       </c>
       <c r="J22" s="24">
         <f t="shared" si="4"/>
-        <v>2.4203660895284532E-72</v>
+        <v>5.6547714826465944E-72</v>
       </c>
       <c r="K22" s="24">
         <f t="shared" si="4"/>
-        <v>3.1542489177668498E-55</v>
+        <v>4.7185126875544717E-56</v>
       </c>
       <c r="L22" s="24">
         <f t="shared" si="4"/>
-        <v>9.9875297222715653E-41</v>
+        <v>1.5772104832828912E-42</v>
       </c>
       <c r="M22" s="24">
         <f t="shared" si="4"/>
-        <v>7.6836473772628044E-29</v>
+        <v>2.111877109045009E-31</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="4"/>
-        <v>1.4362299722705251E-19</v>
+        <v>1.1327709174948025E-22</v>
       </c>
       <c r="O22" s="24">
         <f t="shared" si="4"/>
-        <v>6.5227054088951777E-13</v>
+        <v>2.4339407286729773E-16</v>
       </c>
       <c r="P22" s="24">
         <f t="shared" si="4"/>
-        <v>7.1974517527149523E-9</v>
+        <v>2.0949437454453122E-12</v>
       </c>
       <c r="Q22" s="24">
         <f t="shared" si="4"/>
-        <v>1.9296430476038229E-7</v>
+        <v>7.2231925637567176E-11</v>
       </c>
       <c r="R22" s="24">
         <f t="shared" si="4"/>
-        <v>1.2569627707235693E-8</v>
+        <v>9.9765522212552936E-12</v>
       </c>
       <c r="S22" s="24">
         <f t="shared" si="4"/>
-        <v>1.9893677323446982E-12</v>
+        <v>5.5198366701933182E-15</v>
       </c>
       <c r="T22" s="24">
         <f t="shared" si="5"/>
-        <v>7.6498856422376129E-19</v>
+        <v>1.2233942482900311E-20</v>
       </c>
       <c r="U22" s="24">
         <f t="shared" si="5"/>
-        <v>7.1473003942750935E-28</v>
+        <v>1.0861782480285358E-28</v>
       </c>
       <c r="V22" s="24">
         <f t="shared" si="5"/>
-        <v>1.6224687732481521E-39</v>
+        <v>3.8630490999290274E-39</v>
       </c>
       <c r="W22" s="24">
         <f t="shared" si="5"/>
-        <v>8.9486573160437658E-54</v>
+        <v>5.5036881110170212E-52</v>
       </c>
       <c r="X22" s="24">
         <f t="shared" si="5"/>
-        <v>1.1991862126447474E-70</v>
+        <v>3.1410283879088111E-67</v>
       </c>
       <c r="Y22" s="24">
         <f t="shared" si="5"/>
-        <v>3.9044745372853186E-90</v>
+        <v>7.1809907612920699E-85</v>
       </c>
       <c r="Z22" s="24">
         <f t="shared" si="5"/>
-        <v>3.0887715054977207E-112</v>
+        <v>6.576447150441698E-105</v>
       </c>
       <c r="AA22" s="24">
         <f t="shared" si="5"/>
-        <v>5.9368515329985577E-137</v>
+        <v>2.4126413156580066E-127</v>
       </c>
       <c r="AB22" s="24">
         <f t="shared" si="5"/>
-        <v>2.7725144190540293E-164</v>
+        <v>3.5455910863274503E-152</v>
       </c>
       <c r="AC22" s="24">
         <f t="shared" si="5"/>
-        <v>3.1458546845331759E-194</v>
+        <v>2.0872717391934098E-179</v>
       </c>
       <c r="AD22" s="25">
         <f t="shared" si="5"/>
-        <v>8.6726280433943055E-227</v>
+        <v>4.9222514883137206E-209</v>
       </c>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="8">
-        <v>-0.99816658225921095</v>
+        <v>-0.78853678559780427</v>
       </c>
       <c r="B23" s="9">
-        <v>-0.79888424331675523</v>
+        <v>-0.58802776781949528</v>
       </c>
       <c r="C23" s="10">
         <f t="shared" si="2"/>
-        <v>0.9963365259390341</v>
+        <v>0.62179026224091749</v>
       </c>
       <c r="D23" s="10">
         <f t="shared" si="3"/>
-        <v>0.79741955477222148</v>
+        <v>0.46368152587863676</v>
       </c>
       <c r="I23" s="20">
         <v>1</v>
       </c>
       <c r="J23" s="26">
         <f t="shared" si="4"/>
-        <v>2.1698591330199895E-77</v>
+        <v>2.611778817051954E-78</v>
       </c>
       <c r="K23" s="26">
         <f t="shared" si="4"/>
-        <v>3.4551904798808352E-60</v>
+        <v>2.502642922184016E-62</v>
       </c>
       <c r="L23" s="26">
         <f t="shared" si="4"/>
-        <v>1.3367791629529557E-45</v>
+        <v>9.6062932960541008E-49</v>
       </c>
       <c r="M23" s="26">
         <f t="shared" si="4"/>
-        <v>1.2565927776809186E-33</v>
+        <v>1.4770910123514398E-37</v>
       </c>
       <c r="N23" s="26">
         <f t="shared" si="4"/>
-        <v>2.8699654603748536E-24</v>
+        <v>9.0981507572732418E-29</v>
       </c>
       <c r="O23" s="26">
         <f t="shared" si="4"/>
-        <v>1.5925973907789084E-17</v>
+        <v>2.244881712233218E-22</v>
       </c>
       <c r="P23" s="26">
         <f t="shared" si="4"/>
-        <v>2.1472496893576726E-13</v>
+        <v>2.2188515902577073E-18</v>
       </c>
       <c r="Q23" s="26">
         <f t="shared" si="4"/>
-        <v>7.0340640126431963E-12</v>
+        <v>8.785318441543465E-17</v>
       </c>
       <c r="R23" s="26">
         <f t="shared" si="4"/>
-        <v>5.5985724518808735E-13</v>
+        <v>1.3934173725241144E-17</v>
       </c>
       <c r="S23" s="26">
         <f t="shared" si="4"/>
-        <v>1.0826685177669419E-16</v>
+        <v>8.85318202447294E-21</v>
       </c>
       <c r="T23" s="26">
         <f t="shared" si="5"/>
-        <v>5.0869905736900152E-23</v>
+        <v>2.2532637305609476E-26</v>
       </c>
       <c r="U23" s="26">
         <f t="shared" si="5"/>
-        <v>5.8072908325688895E-32</v>
+        <v>2.2973074379620302E-34</v>
       </c>
       <c r="V23" s="26">
         <f t="shared" si="5"/>
-        <v>1.6107696522460857E-43</v>
+        <v>9.3825453257079761E-45</v>
       </c>
       <c r="W23" s="26">
         <f t="shared" si="5"/>
-        <v>1.0855267250071324E-57</v>
+        <v>1.5350293490700388E-57</v>
       </c>
       <c r="X23" s="26">
         <f t="shared" si="5"/>
-        <v>1.7774394712990251E-74</v>
+        <v>1.0060212529353608E-72</v>
       </c>
       <c r="Y23" s="26">
         <f t="shared" si="5"/>
-        <v>7.071252404771733E-94</v>
+        <v>2.6411440444929349E-90</v>
       </c>
       <c r="Z23" s="26">
         <f t="shared" si="5"/>
-        <v>6.8351032223806512E-116</v>
+        <v>2.7776113599159448E-110</v>
       </c>
       <c r="AA23" s="26">
         <f t="shared" si="5"/>
-        <v>1.6052439237051303E-140</v>
+        <v>1.1701602241204138E-132</v>
       </c>
       <c r="AB23" s="26">
         <f t="shared" si="5"/>
-        <v>9.1597624480005855E-168</v>
+        <v>1.9747569153208459E-157</v>
       </c>
       <c r="AC23" s="26">
         <f t="shared" si="5"/>
-        <v>1.2699148614867035E-197</v>
+        <v>1.334985089288211E-184</v>
       </c>
       <c r="AD23" s="22">
         <f t="shared" si="5"/>
-        <v>4.2777186735899366E-230</v>
+        <v>3.6152109735010484E-214</v>
       </c>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="8">
-        <v>-6.7242189519467033E-2</v>
+        <v>-0.32657755376861353</v>
       </c>
       <c r="B24" s="9">
-        <v>-0.2781014385031913</v>
+        <v>-0.86337098853440986</v>
       </c>
       <c r="C24" s="10">
         <f t="shared" si="2"/>
-        <v>4.5215120513719224E-3</v>
+        <v>0.10665289862549165</v>
       </c>
       <c r="D24" s="10">
         <f t="shared" si="3"/>
-        <v>1.8700149633467996E-2</v>
+        <v>0.28195758543035726</v>
       </c>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="8">
-        <v>0.46482500501671886</v>
+        <v>0.30183954881329278</v>
       </c>
       <c r="B25" s="9">
-        <v>-2.8489030374808495E-2</v>
+        <v>1.46831500291707E-2</v>
       </c>
       <c r="C25" s="10">
         <f t="shared" si="2"/>
-        <v>0.2160622852887927</v>
+        <v>9.1107113227812161E-2</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" si="3"/>
-        <v>-1.3242413686891814E-2</v>
+        <v>4.4319553799627709E-3</v>
       </c>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="8">
-        <v>-0.94454481735111351</v>
+        <v>-0.89686796957963111</v>
       </c>
       <c r="B26" s="9">
-        <v>-0.79186250015112303</v>
+        <v>-0.57622092897810984</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" si="2"/>
-        <v>0.89216491198484837</v>
+        <v>0.80437215485789015</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="3"/>
-        <v>0.74794962057243863</v>
+        <v>0.51679409460188619</v>
       </c>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="8">
-        <v>8.8437196991796085E-2</v>
-      </c>
-      <c r="B27" s="9">
-        <v>-0.26822094475340125</v>
-      </c>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="10">
         <f t="shared" si="2"/>
-        <v>7.8211378117657472E-3</v>
+        <v>0</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="3"/>
-        <v>-2.3720708528482199E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="8">
-        <v>0.37117180713146958</v>
-      </c>
-      <c r="B28" s="9">
-        <v>-9.8919587845817156E-2</v>
-      </c>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="10">
         <f t="shared" si="2"/>
-        <v>0.13776851040924085</v>
+        <v>0</v>
       </c>
       <c r="D28" s="10">
         <f t="shared" si="3"/>
-        <v>-3.6716162181432109E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -10572,11 +10552,11 @@
     <row r="2" spans="1:33">
       <c r="A2">
         <f ca="1">RAND()</f>
-        <v>0.50243889469005243</v>
+        <v>0.47851859242121098</v>
       </c>
       <c r="B2">
         <f ca="1">-0.3+0.5*A2+0.2*NORMSINV(RAND())*0.2</f>
-        <v>-1.857155875900951E-2</v>
+        <v>-3.4963875475315653E-2</v>
       </c>
       <c r="I2" s="3">
         <v>-0.3</v>
